--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O640"/>
+  <dimension ref="A1:O650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29560,6 +29560,514 @@
         </is>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>339.6666666666667</v>
+      </c>
+      <c r="C641" t="n">
+        <v>339.58</v>
+      </c>
+      <c r="D641" t="n">
+        <v>341.04</v>
+      </c>
+      <c r="E641" t="n">
+        <v>313.3233333333333</v>
+      </c>
+      <c r="F641" t="n">
+        <v>357.7966666666667</v>
+      </c>
+      <c r="G641" t="n">
+        <v>345.2690476190476</v>
+      </c>
+      <c r="H641" t="n">
+        <v>363.2488888888889</v>
+      </c>
+      <c r="I641" t="n">
+        <v>356.7790476190476</v>
+      </c>
+      <c r="J641" t="n">
+        <v>352.4833333333333</v>
+      </c>
+      <c r="K641" t="n">
+        <v>357.0266666666667</v>
+      </c>
+      <c r="L641" t="n">
+        <v>371.2766666666667</v>
+      </c>
+      <c r="M641" t="n">
+        <v>372.71</v>
+      </c>
+      <c r="N641" t="n">
+        <v>370.4282352941176</v>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>334.5733333333333</v>
+      </c>
+      <c r="C642" t="n">
+        <v>335.62</v>
+      </c>
+      <c r="D642" t="n">
+        <v>330.84</v>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="n">
+        <v>347.6133333333333</v>
+      </c>
+      <c r="G642" t="n">
+        <v>348.7895238095238</v>
+      </c>
+      <c r="H642" t="n">
+        <v>346.7211111111111</v>
+      </c>
+      <c r="I642" t="n">
+        <v>346.8995238095238</v>
+      </c>
+      <c r="J642" t="n">
+        <v>349.0466666666667</v>
+      </c>
+      <c r="K642" t="n">
+        <v>355.9933333333333</v>
+      </c>
+      <c r="L642" t="n">
+        <v>370.4933333333333</v>
+      </c>
+      <c r="M642" t="n">
+        <v>376.27</v>
+      </c>
+      <c r="N642" t="n">
+        <v>378.5970588235294</v>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>340.0966666666666</v>
+      </c>
+      <c r="C643" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="D643" t="n">
+        <v>334.99</v>
+      </c>
+      <c r="E643" t="n">
+        <v>299.7733333333333</v>
+      </c>
+      <c r="F643" t="n">
+        <v>348.8866666666667</v>
+      </c>
+      <c r="G643" t="n">
+        <v>354.7561904761905</v>
+      </c>
+      <c r="H643" t="n">
+        <v>360.6555555555556</v>
+      </c>
+      <c r="I643" t="n">
+        <v>357.1461904761905</v>
+      </c>
+      <c r="J643" t="n">
+        <v>357.6033333333333</v>
+      </c>
+      <c r="K643" t="n">
+        <v>360.8066666666667</v>
+      </c>
+      <c r="L643" t="n">
+        <v>368.8466666666666</v>
+      </c>
+      <c r="M643" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="N643" t="n">
+        <v>378.6964705882353</v>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>334.15</v>
+      </c>
+      <c r="C644" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="D644" t="n">
+        <v>332.04</v>
+      </c>
+      <c r="E644" t="n">
+        <v>304.56</v>
+      </c>
+      <c r="F644" t="n">
+        <v>343.05</v>
+      </c>
+      <c r="G644" t="n">
+        <v>346.3042857142857</v>
+      </c>
+      <c r="H644" t="n">
+        <v>359.0433333333333</v>
+      </c>
+      <c r="I644" t="n">
+        <v>357.8142857142857</v>
+      </c>
+      <c r="J644" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="K644" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="L644" t="n">
+        <v>369.64</v>
+      </c>
+      <c r="M644" t="n">
+        <v>371.71</v>
+      </c>
+      <c r="N644" t="n">
+        <v>374.2964705882353</v>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>329.1333333333333</v>
+      </c>
+      <c r="C645" t="n">
+        <v>329.45</v>
+      </c>
+      <c r="D645" t="n">
+        <v>327.96</v>
+      </c>
+      <c r="E645" t="n">
+        <v>340.3266666666667</v>
+      </c>
+      <c r="F645" t="n">
+        <v>340.3333333333333</v>
+      </c>
+      <c r="G645" t="n">
+        <v>343.8523809523809</v>
+      </c>
+      <c r="H645" t="n">
+        <v>350.3177777777778</v>
+      </c>
+      <c r="I645" t="n">
+        <v>349.622380952381</v>
+      </c>
+      <c r="J645" t="n">
+        <v>346.3066666666667</v>
+      </c>
+      <c r="K645" t="n">
+        <v>355.5333333333334</v>
+      </c>
+      <c r="L645" t="n">
+        <v>360.7933333333334</v>
+      </c>
+      <c r="M645" t="n">
+        <v>365.59</v>
+      </c>
+      <c r="N645" t="n">
+        <v>365.9676470588236</v>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>347.7666666666667</v>
+      </c>
+      <c r="C646" t="n">
+        <v>352.36</v>
+      </c>
+      <c r="D646" t="n">
+        <v>345.57</v>
+      </c>
+      <c r="E646" t="n">
+        <v>355.3033333333333</v>
+      </c>
+      <c r="F646" t="n">
+        <v>369.5066666666667</v>
+      </c>
+      <c r="G646" t="n">
+        <v>349.9404761904762</v>
+      </c>
+      <c r="H646" t="n">
+        <v>363.6888888888889</v>
+      </c>
+      <c r="I646" t="n">
+        <v>363.5704761904762</v>
+      </c>
+      <c r="J646" t="n">
+        <v>361.0233333333333</v>
+      </c>
+      <c r="K646" t="n">
+        <v>367.0966666666667</v>
+      </c>
+      <c r="L646" t="n">
+        <v>381.5766666666667</v>
+      </c>
+      <c r="M646" t="n">
+        <v>384.59</v>
+      </c>
+      <c r="N646" t="n">
+        <v>379.3564705882353</v>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>341.3866666666667</v>
+      </c>
+      <c r="C647" t="n">
+        <v>339.16</v>
+      </c>
+      <c r="D647" t="n">
+        <v>340.54</v>
+      </c>
+      <c r="E647" t="n">
+        <v>330.8933333333333</v>
+      </c>
+      <c r="F647" t="n">
+        <v>364.3766666666667</v>
+      </c>
+      <c r="G647" t="n">
+        <v>346.4004761904762</v>
+      </c>
+      <c r="H647" t="n">
+        <v>359.0122222222222</v>
+      </c>
+      <c r="I647" t="n">
+        <v>359.2604761904762</v>
+      </c>
+      <c r="J647" t="n">
+        <v>354.1533333333333</v>
+      </c>
+      <c r="K647" t="n">
+        <v>361.7266666666666</v>
+      </c>
+      <c r="L647" t="n">
+        <v>375.7466666666666</v>
+      </c>
+      <c r="M647" t="n">
+        <v>373.99</v>
+      </c>
+      <c r="N647" t="n">
+        <v>375.1252941176471</v>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>347.01</v>
+      </c>
+      <c r="C648" t="n">
+        <v>341.43</v>
+      </c>
+      <c r="D648" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="E648" t="n">
+        <v>340.82</v>
+      </c>
+      <c r="F648" t="n">
+        <v>363.51</v>
+      </c>
+      <c r="G648" t="n">
+        <v>349.4471428571428</v>
+      </c>
+      <c r="H648" t="n">
+        <v>360.6333333333333</v>
+      </c>
+      <c r="I648" t="n">
+        <v>362.6471428571429</v>
+      </c>
+      <c r="J648" t="n">
+        <v>356.03</v>
+      </c>
+      <c r="K648" t="n">
+        <v>359.86</v>
+      </c>
+      <c r="L648" t="n">
+        <v>374.14</v>
+      </c>
+      <c r="M648" t="n">
+        <v>386.49</v>
+      </c>
+      <c r="N648" t="n">
+        <v>379.3394117647059</v>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>342.1433333333334</v>
+      </c>
+      <c r="C649" t="n">
+        <v>344.785</v>
+      </c>
+      <c r="D649" t="n">
+        <v>338.375</v>
+      </c>
+      <c r="E649" t="n">
+        <v>312.4866666666667</v>
+      </c>
+      <c r="F649" t="n">
+        <v>356.7433333333333</v>
+      </c>
+      <c r="G649" t="n">
+        <v>356.6952380952381</v>
+      </c>
+      <c r="H649" t="n">
+        <v>368.6144444444445</v>
+      </c>
+      <c r="I649" t="n">
+        <v>358.7052380952381</v>
+      </c>
+      <c r="J649" t="n">
+        <v>361.3966666666667</v>
+      </c>
+      <c r="K649" t="n">
+        <v>359.1733333333333</v>
+      </c>
+      <c r="L649" t="n">
+        <v>370.9533333333334</v>
+      </c>
+      <c r="M649" t="n">
+        <v>379.11</v>
+      </c>
+      <c r="N649" t="n">
+        <v>377.1464705882353</v>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>340.0466666666667</v>
+      </c>
+      <c r="C650" t="n">
+        <v>343.84</v>
+      </c>
+      <c r="D650" t="n">
+        <v>342.21</v>
+      </c>
+      <c r="E650" t="n">
+        <v>316.8833333333333</v>
+      </c>
+      <c r="F650" t="n">
+        <v>355.4666666666667</v>
+      </c>
+      <c r="G650" t="n">
+        <v>345.0490476190476</v>
+      </c>
+      <c r="H650" t="n">
+        <v>356.7088888888889</v>
+      </c>
+      <c r="I650" t="n">
+        <v>353.3790476190476</v>
+      </c>
+      <c r="J650" t="n">
+        <v>349.6933333333333</v>
+      </c>
+      <c r="K650" t="n">
+        <v>359.1866666666667</v>
+      </c>
+      <c r="L650" t="n">
+        <v>370.1166666666667</v>
+      </c>
+      <c r="M650" t="n">
+        <v>372.65</v>
+      </c>
+      <c r="N650" t="n">
+        <v>372.1782352941176</v>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29571,7 +30079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B653"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36109,6 +36617,106 @@
       </c>
       <c r="B653" t="n">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -36277,28 +36885,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9761188899982245</v>
+        <v>0.9480916480022569</v>
       </c>
       <c r="J2" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K2" t="n">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2820806239570552</v>
+        <v>0.2757607043003296</v>
       </c>
       <c r="M2" t="n">
-        <v>9.285117881379097</v>
+        <v>9.254133737866074</v>
       </c>
       <c r="N2" t="n">
-        <v>128.6760691185041</v>
+        <v>127.849317591151</v>
       </c>
       <c r="O2" t="n">
-        <v>11.3435474662252</v>
+        <v>11.30704725342346</v>
       </c>
       <c r="P2" t="n">
-        <v>322.4365734384072</v>
+        <v>322.7121607990861</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -36354,28 +36962,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7303569829296385</v>
+        <v>0.7022111043245237</v>
       </c>
       <c r="J3" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1740158885470381</v>
+        <v>0.1666156040803912</v>
       </c>
       <c r="M3" t="n">
-        <v>9.367254326208839</v>
+        <v>9.350816485306332</v>
       </c>
       <c r="N3" t="n">
-        <v>133.8001390900022</v>
+        <v>132.9520835923698</v>
       </c>
       <c r="O3" t="n">
-        <v>11.56720100499694</v>
+        <v>11.53048496778734</v>
       </c>
       <c r="P3" t="n">
-        <v>329.5298072348027</v>
+        <v>329.8087592628908</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -36431,28 +37039,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5126057738358634</v>
+        <v>0.4787992196732183</v>
       </c>
       <c r="J4" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K4" t="n">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09687828237996876</v>
+        <v>0.08734571448172579</v>
       </c>
       <c r="M4" t="n">
-        <v>9.056148018145922</v>
+        <v>9.06156915235217</v>
       </c>
       <c r="N4" t="n">
-        <v>130.1980117116593</v>
+        <v>129.7940814578455</v>
       </c>
       <c r="O4" t="n">
-        <v>11.41043433492605</v>
+        <v>11.39272054681609</v>
       </c>
       <c r="P4" t="n">
-        <v>333.3236177532547</v>
+        <v>333.6591310216471</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -36508,28 +37116,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.671240923496115</v>
+        <v>-1.712135673918754</v>
       </c>
       <c r="J5" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07834381159757009</v>
+        <v>0.08461099963000029</v>
       </c>
       <c r="M5" t="n">
-        <v>27.45806430879552</v>
+        <v>27.27942301082505</v>
       </c>
       <c r="N5" t="n">
-        <v>1692.678674632793</v>
+        <v>1664.196210538156</v>
       </c>
       <c r="O5" t="n">
-        <v>41.14217634779173</v>
+        <v>40.79456104112601</v>
       </c>
       <c r="P5" t="n">
-        <v>376.4395092268092</v>
+        <v>376.8640787779959</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -36585,28 +37193,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6527269558633411</v>
+        <v>0.6340176539075222</v>
       </c>
       <c r="J6" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K6" t="n">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1655556347877961</v>
+        <v>0.1602616074822513</v>
       </c>
       <c r="M6" t="n">
-        <v>8.39124330030277</v>
+        <v>8.403588546007141</v>
       </c>
       <c r="N6" t="n">
-        <v>114.2257860674098</v>
+        <v>114.126704327533</v>
       </c>
       <c r="O6" t="n">
-        <v>10.68764642320328</v>
+        <v>10.68301007804135</v>
       </c>
       <c r="P6" t="n">
-        <v>343.3792411630072</v>
+        <v>343.5652074145743</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -36662,28 +37270,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6774956201782615</v>
+        <v>0.6599698261037348</v>
       </c>
       <c r="J7" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K7" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1866011654777805</v>
+        <v>0.1831969114082475</v>
       </c>
       <c r="M7" t="n">
-        <v>7.919875041650698</v>
+        <v>7.872487180924046</v>
       </c>
       <c r="N7" t="n">
-        <v>105.6866882039365</v>
+        <v>104.4401485358165</v>
       </c>
       <c r="O7" t="n">
-        <v>10.28040311485578</v>
+        <v>10.21959630004124</v>
       </c>
       <c r="P7" t="n">
-        <v>336.3686146490071</v>
+        <v>336.5445297890347</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -36739,28 +37347,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9107778183713827</v>
+        <v>0.8959248282291276</v>
       </c>
       <c r="J8" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K8" t="n">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1999625844469731</v>
+        <v>0.1995925197395064</v>
       </c>
       <c r="M8" t="n">
-        <v>10.60297416024093</v>
+        <v>10.50982397880405</v>
       </c>
       <c r="N8" t="n">
-        <v>176.9567381664969</v>
+        <v>174.6939427363531</v>
       </c>
       <c r="O8" t="n">
-        <v>13.3025087170239</v>
+        <v>13.21718361589764</v>
       </c>
       <c r="P8" t="n">
-        <v>339.9942993432107</v>
+        <v>340.1420522295398</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -36816,28 +37424,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6902010221747376</v>
+        <v>0.6901873961840902</v>
       </c>
       <c r="J9" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K9" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1158021988020144</v>
+        <v>0.1195792294297646</v>
       </c>
       <c r="M9" t="n">
-        <v>11.07285064867038</v>
+        <v>10.93628808916639</v>
       </c>
       <c r="N9" t="n">
-        <v>192.1427842512884</v>
+        <v>188.9292592331473</v>
       </c>
       <c r="O9" t="n">
-        <v>13.86155778587992</v>
+        <v>13.74515402726165</v>
       </c>
       <c r="P9" t="n">
-        <v>339.0216915666272</v>
+        <v>339.0216628606464</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -36893,28 +37501,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6367277258428709</v>
+        <v>0.6420147165046279</v>
       </c>
       <c r="J10" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K10" t="n">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="L10" t="n">
-        <v>0.112115633305925</v>
+        <v>0.117291989760325</v>
       </c>
       <c r="M10" t="n">
-        <v>10.57855122517823</v>
+        <v>10.46260336430554</v>
       </c>
       <c r="N10" t="n">
-        <v>173.8969888977616</v>
+        <v>171.0849350418533</v>
       </c>
       <c r="O10" t="n">
-        <v>13.18700075444609</v>
+        <v>13.07994399995097</v>
       </c>
       <c r="P10" t="n">
-        <v>337.0559053839953</v>
+        <v>337.0036835699402</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -36970,28 +37578,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5279486326804423</v>
+        <v>0.5347213122599634</v>
       </c>
       <c r="J11" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K11" t="n">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1463339775872543</v>
+        <v>0.154004647061927</v>
       </c>
       <c r="M11" t="n">
-        <v>7.348302271684116</v>
+        <v>7.258346565269775</v>
       </c>
       <c r="N11" t="n">
-        <v>87.12994204490434</v>
+        <v>85.71406111306401</v>
       </c>
       <c r="O11" t="n">
-        <v>9.334342078845426</v>
+        <v>9.258188867865249</v>
       </c>
       <c r="P11" t="n">
-        <v>344.2159770091017</v>
+        <v>344.1485858337599</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -37047,28 +37655,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7454005305124102</v>
+        <v>0.7635032471458603</v>
       </c>
       <c r="J12" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K12" t="n">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1372466512976463</v>
+        <v>0.14717611846333</v>
       </c>
       <c r="M12" t="n">
-        <v>10.74123819121761</v>
+        <v>10.63283637632199</v>
       </c>
       <c r="N12" t="n">
-        <v>188.6168346668118</v>
+        <v>185.8921683779955</v>
       </c>
       <c r="O12" t="n">
-        <v>13.73378442625381</v>
+        <v>13.63422782477965</v>
       </c>
       <c r="P12" t="n">
-        <v>347.3923131807972</v>
+        <v>347.2138877852161</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -37124,28 +37732,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4967800847018751</v>
+        <v>0.5198137593911973</v>
       </c>
       <c r="J13" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K13" t="n">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09582065307290855</v>
+        <v>0.106572374727106</v>
       </c>
       <c r="M13" t="n">
-        <v>8.323041381928016</v>
+        <v>8.290439509244164</v>
       </c>
       <c r="N13" t="n">
-        <v>126.1191972440415</v>
+        <v>125.0450039267092</v>
       </c>
       <c r="O13" t="n">
-        <v>11.23028037245916</v>
+        <v>11.18235234316596</v>
       </c>
       <c r="P13" t="n">
-        <v>357.3517621844022</v>
+        <v>357.1249684865355</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -37201,28 +37809,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3814951745579843</v>
+        <v>0.4164788820987396</v>
       </c>
       <c r="J14" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K14" t="n">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04635504133817558</v>
+        <v>0.05609899415116337</v>
       </c>
       <c r="M14" t="n">
-        <v>10.00296188574185</v>
+        <v>9.96344693194311</v>
       </c>
       <c r="N14" t="n">
-        <v>160.9996979736646</v>
+        <v>159.9291286765911</v>
       </c>
       <c r="O14" t="n">
-        <v>12.68856563893904</v>
+        <v>12.64630889534931</v>
       </c>
       <c r="P14" t="n">
-        <v>355.74782849413</v>
+        <v>355.4022748032681</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -37259,7 +37867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O640"/>
+  <dimension ref="A1:O650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79463,6 +80071,772 @@
         </is>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-37.16933726908868,175.8822489519521</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-37.170010659267575,175.88258485092464</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-37.170637477458705,175.88304849990146</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-37.17116071167425,175.8831249132234</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-37.17179357798957,175.8832982408178</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-37.172500311818574,175.88307935084367</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-37.17321801568095,175.88322831286553</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-37.17392448321016,175.88334899742839</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-37.17462795653767,175.88350505558026</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>-37.17532852697443,175.88367163088762</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>-37.17601917678978,175.88394644493192</t>
+        </is>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>-37.17671909100359,175.8840761116247</t>
+        </is>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>-37.17740610313608,175.88428397180604</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-37.16935506491367,175.88219611579714</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-37.1700267042046,175.8825450453756</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-37.17068432709058,175.88294974688498</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-37.171774421923466,175.88318615220055</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-37.17250192237025,175.8831189240158</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-37.17323287799174,175.88304321403174</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-37.17394587108479,175.88324105735836</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-37.17463406522682,175.8834671342442</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-37.175329912056625,175.8836601294105</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>-37.1760202267912,175.88393772599588</t>
+        </is>
+      </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>-37.176712176523566,175.88411524021808</t>
+        </is>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>-37.1773853827035,175.88437219937168</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-37.169335766691425,175.88225341259488</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-37.17000389283831,175.88260163760296</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-37.170665265730115,175.88298992582352</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-37.1711695469423,175.88297280559914</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-37.17177681722148,175.88320016786128</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-37.172504651977654,175.88318599446902</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-37.17322034770888,175.88319926946465</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-37.17392368839213,175.8833530086959</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-37.17461885569449,175.88356155136984</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-37.175323460245025,175.8837137040288</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>-37.17602243402619,175.8839193976783</t>
+        </is>
+      </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>-37.176706388550215,175.88414799392214</t>
+        </is>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>-37.17738513054259,175.8843732730704</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-37.16935654401591,175.88219172430922</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-37.170022774006554,175.88255479572635</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-37.170678815373215,175.88296136489345</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-37.171166425821795,175.88302653907292</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-37.17176583771326,175.88313592330775</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-37.17250078542193,175.88309098780778</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-37.17322179747932,175.883181213776</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-37.17392224204978,175.88336030805797</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-37.17461495109287,175.8835857901186</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-37.175325721062606,175.88369493065267</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>-37.176021370621825,175.8839282279205</t>
+        </is>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>-37.17672103327098,175.88406512044537</t>
+        </is>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>-37.17739629126496,175.88432575077644</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-37.16937407194788,175.8821396834352</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-37.17005170348768,175.88248302507864</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-37.17069755520789,175.88292186365757</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-37.17114310359082,175.88342804318117</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-37.17176072730748,175.88310602079417</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-37.17249966371647,175.8830634262954</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-37.173229643777475,175.88308349403448</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-37.173939976465405,175.88327080630808</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-37.17463893557959,175.88343690015756</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>-37.17533052864125,175.88365500939793</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>-37.17603322888414,175.88382975957276</t>
+        </is>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>-37.17673291992569,175.88399785441408</t>
+        </is>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>-37.17741741750678,175.88423579509856</t>
+        </is>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-37.16930896809011,175.88233297798254</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-37.1699588777932,175.88271331416797</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-37.17061667068557,175.8830923578185</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-37.1711333374125,175.88359616591035</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-37.17181560576367,175.88342713361683</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-37.17250244890642,175.883131861708</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-37.17321762001485,175.88323324053744</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-37.17390978060147,175.88342319805844</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-37.17461277660094,175.88359928878322</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-37.1753150290674,175.8837837146115</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>-37.17600537032919,175.8840610896392</t>
+        </is>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>-37.176696016790586,175.88420668678725</t>
+        </is>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>-37.17738345643265,175.88438040141318</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-37.1693312594987,175.88226679452214</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-37.17001236100393,175.88258062912485</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-37.17063977401111,175.88304365907027</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-37.17114925487903,175.88332214790853</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-37.171805955697586,175.8833706673355</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-37.17250082942732,175.88309206907124</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-37.17322182545556,175.88318086535472</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-37.17391911122735,175.88337610860043</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-37.17462498810149,175.88352348291957</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-37.17532222707054,175.88372394405155</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>-37.1760131850674,175.88399619851478</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>-37.17671660489986,175.88409018033335</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>-37.177394188932446,175.88433470250382</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-37.16931161184836,175.8823251286401</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-37.170003163522445,175.88260344694535</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-37.170654885321184,175.88301180639334</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-37.17114278189544,175.88343358116649</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-37.17180432540429,175.88336112787402</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-37.172502223217116,175.88312631621807</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-37.17322036769195,175.88319902059231</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-37.173911779507385,175.8834131100627</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-37.17462165231058,175.8835441906861</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-37.17532472916276,175.88370316719335</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>-37.176015338694064,175.88397831542343</t>
+        </is>
+      </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>-37.176692326457264,175.88422757001211</t>
+        </is>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>-37.17738349970286,175.88438021716902</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-37.16932861574415,175.88227464386884</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-37.16998956988025,175.88263717107043</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-37.170649718080796,175.8830226982676</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-37.1711612572278,175.88311552109354</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-37.171791596548815,175.88328664670644</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-37.17250553903737,175.8832077910286</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-37.17321319073875,175.88328840308236</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-37.17392031324898,175.88337004227446</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-37.174612112995476,175.88360340826654</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>-37.17532564957435,175.88369552427724</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>-37.1760196101947,175.88394284605195</t>
+        </is>
+      </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>-37.17670666046863,175.88414645515763</t>
+        </is>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>-37.17738906216282,175.88435653226404</t>
+        </is>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-37.16933594138878,175.88225289391553</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-37.16999339879083,175.88262767202605</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-37.17063210352539,175.88305982744532</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-37.17115839034655,175.88316487654694</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-37.171789194990914,175.88327259435073</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-37.172500211172284,175.883076877855</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-37.17322389669412,175.88315506973458</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-37.17393184377552,175.88331185027735</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-37.17463291577507,175.88347426978228</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-37.175325631702286,175.8836956726834</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>-37.17602073168529,175.8839335334861</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>-37.17671920753967,175.88407545215398</t>
+        </is>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>-37.177401664221094,175.88430287272553</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -36730,7 +36730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36821,35 +36821,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -36908,27 +36913,28 @@
       <c r="P2" t="n">
         <v>322.7121607990861</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.87872533181945 -37.17052399615514, 175.88825823593749 -37.16731306833116)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8787253318195</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.17052399615514</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8882582359375</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.16731306833116</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8834917838785</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.16891853224315</v>
       </c>
     </row>
@@ -36985,27 +36991,28 @@
       <c r="P3" t="n">
         <v>329.8087592628908</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.87917136090505 -37.17138650692512, 175.88840790890046 -37.16766327097008)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.879171360905</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.17138650692512</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8884079089005</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.16766327097008</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8837896349028</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.1695248889476</v>
       </c>
     </row>
@@ -37062,27 +37069,28 @@
       <c r="P4" t="n">
         <v>333.6591310216471</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.87974659560572 -37.17220386661388, 175.88864214503712 -37.167983560214516)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8797465956057</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.17220386661388</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8886421450371</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.16798356021452</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8841943703214</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.1700937134142</v>
       </c>
     </row>
@@ -37139,27 +37147,28 @@
       <c r="P5" t="n">
         <v>376.8640787779959</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.87960764123378 -37.171364964294305, 175.88992569129005 -37.17076548297302)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.8796076412338</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.17136496429431</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.88992569129</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.17076548297302</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8847666662619</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.17106522363366</v>
       </c>
     </row>
@@ -37216,27 +37225,28 @@
       <c r="P6" t="n">
         <v>343.5652074145743</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.8793599794326 -37.17112045457336, 175.88947650743503 -37.17284926918892)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8793599794326</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.17112045457336</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.889476507435</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.17284926918892</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8844182434338</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.17198486188114</v>
       </c>
     </row>
@@ -37293,27 +37303,28 @@
       <c r="P7" t="n">
         <v>336.5445297890347</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.8791982345163 -37.17234229306296, 175.88953023969876 -37.172762674356456)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8791982345163</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.17234229306296</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8895302396988</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.17276267435646</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8843642371075</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.17255248370971</v>
       </c>
     </row>
@@ -37370,27 +37381,28 @@
       <c r="P8" t="n">
         <v>340.1420522295398</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.8791601740258 -37.17354459473635, 175.88945380210342 -37.17271797557242)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.8791601740258</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.17354459473635</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8894538021034</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.17271797557242</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8843069880646</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.17313128515438</v>
       </c>
     </row>
@@ -37447,27 +37459,28 @@
       <c r="P9" t="n">
         <v>339.0216628606464</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.87945091729594 -37.17469680225738, 175.8894923090357 -37.17270703157829)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.8794509172959</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.17469680225738</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.8894923090357</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.17270703157829</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.8844716131658</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.17370191691784</v>
       </c>
     </row>
@@ -37524,27 +37537,28 @@
       <c r="P10" t="n">
         <v>337.0036835699402</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.87961560003242 -37.17525443512466, 175.88975714510838 -37.17362063923168)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.8796156000324</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.17525443512466</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.8897571451084</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.17362063923168</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.8846863725704</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.17443753717816</v>
       </c>
     </row>
@@ -37601,27 +37615,28 @@
       <c r="P11" t="n">
         <v>344.1485858337599</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.87969772989777 -37.17580702077199, 175.88992784557274 -37.174574941249766)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.8796977298978</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.17580702077199</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.8899278455727</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.17457494124977</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.8848127877353</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.17519098101088</v>
       </c>
     </row>
@@ -37678,27 +37693,28 @@
       <c r="P12" t="n">
         <v>347.2138877852161</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.8798138972035 -37.17651677529354, 175.89004407305447 -37.175284690196484)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.8798138972035</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.17651677529354</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.8900440730545</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.17528469019648</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.884928985129</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.17590073274501</v>
       </c>
     </row>
@@ -37755,27 +37771,28 @@
       <c r="P13" t="n">
         <v>357.1249684865355</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.87997954567246 -37.177442924363945, 175.8900812269678 -37.175657752483225)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.8799795456725</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.17744292436394</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.8900812269678</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.17565775248323</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.8850303863201</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.17655033842358</v>
       </c>
     </row>
@@ -37832,27 +37849,28 @@
       <c r="P14" t="n">
         <v>355.4022748032681</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.88028309825864 -37.17834563689295, 175.89020904459773 -37.17601441809047)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.8802830982586</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.17834563689295</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.8902090445977</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.17601441809047</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.8852460714282</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.17718002749171</v>
       </c>
     </row>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O650"/>
+  <dimension ref="A1:O658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30068,6 +30068,410 @@
         </is>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>339.5933333333334</v>
+      </c>
+      <c r="C651" t="n">
+        <v>343.895</v>
+      </c>
+      <c r="D651" t="n">
+        <v>340.185</v>
+      </c>
+      <c r="E651" t="n">
+        <v>321.1666666666667</v>
+      </c>
+      <c r="F651" t="n">
+        <v>354.1133333333333</v>
+      </c>
+      <c r="G651" t="n">
+        <v>343.1995238095238</v>
+      </c>
+      <c r="H651" t="n">
+        <v>357.3344444444444</v>
+      </c>
+      <c r="I651" t="n">
+        <v>348.8995238095238</v>
+      </c>
+      <c r="J651" t="n">
+        <v>326.9666666666667</v>
+      </c>
+      <c r="K651" t="n">
+        <v>342.6533333333334</v>
+      </c>
+      <c r="L651" t="n">
+        <v>363.9033333333334</v>
+      </c>
+      <c r="M651" t="n">
+        <v>368.86</v>
+      </c>
+      <c r="N651" t="n">
+        <v>368.5341176470589</v>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>344.1933333333333</v>
+      </c>
+      <c r="C652" t="n">
+        <v>351.65</v>
+      </c>
+      <c r="D652" t="n">
+        <v>349.85</v>
+      </c>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="n">
+        <v>352.1433333333334</v>
+      </c>
+      <c r="G652" t="n">
+        <v>343.6238095238095</v>
+      </c>
+      <c r="H652" t="n">
+        <v>363.6644444444445</v>
+      </c>
+      <c r="I652" t="n">
+        <v>361.8338095238095</v>
+      </c>
+      <c r="J652" t="n">
+        <v>359.8666666666667</v>
+      </c>
+      <c r="K652" t="n">
+        <v>362.5533333333333</v>
+      </c>
+      <c r="L652" t="n">
+        <v>383.9833333333333</v>
+      </c>
+      <c r="M652" t="n">
+        <v>379.92</v>
+      </c>
+      <c r="N652" t="n">
+        <v>376.2835294117647</v>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>352.06</v>
+      </c>
+      <c r="C653" t="n">
+        <v>345.38</v>
+      </c>
+      <c r="D653" t="n">
+        <v>343.14</v>
+      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="G653" t="n">
+        <v>350.86</v>
+      </c>
+      <c r="H653" t="n">
+        <v>361.2666666666667</v>
+      </c>
+      <c r="I653" t="n">
+        <v>362.01</v>
+      </c>
+      <c r="J653" t="n">
+        <v>351.71</v>
+      </c>
+      <c r="K653" t="n">
+        <v>361.21</v>
+      </c>
+      <c r="L653" t="n">
+        <v>377.4</v>
+      </c>
+      <c r="M653" t="n">
+        <v>375.77</v>
+      </c>
+      <c r="N653" t="n">
+        <v>379.2411764705882</v>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>347.9533333333333</v>
+      </c>
+      <c r="C654" t="n">
+        <v>348.365</v>
+      </c>
+      <c r="D654" t="n">
+        <v>346.015</v>
+      </c>
+      <c r="E654" t="n">
+        <v>304.0166666666667</v>
+      </c>
+      <c r="F654" t="n">
+        <v>358.4033333333333</v>
+      </c>
+      <c r="G654" t="n">
+        <v>347.2909523809524</v>
+      </c>
+      <c r="H654" t="n">
+        <v>367.0844444444445</v>
+      </c>
+      <c r="I654" t="n">
+        <v>355.6309523809524</v>
+      </c>
+      <c r="J654" t="n">
+        <v>355.5166666666667</v>
+      </c>
+      <c r="K654" t="n">
+        <v>361.0433333333334</v>
+      </c>
+      <c r="L654" t="n">
+        <v>371.6233333333333</v>
+      </c>
+      <c r="M654" t="n">
+        <v>383.99</v>
+      </c>
+      <c r="N654" t="n">
+        <v>374.1788235294118</v>
+      </c>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>336.6933333333333</v>
+      </c>
+      <c r="C655" t="n">
+        <v>338.375</v>
+      </c>
+      <c r="D655" t="n">
+        <v>339.285</v>
+      </c>
+      <c r="E655" t="n">
+        <v>344.6866666666667</v>
+      </c>
+      <c r="F655" t="n">
+        <v>349.1633333333333</v>
+      </c>
+      <c r="G655" t="n">
+        <v>344.252380952381</v>
+      </c>
+      <c r="H655" t="n">
+        <v>350.6844444444445</v>
+      </c>
+      <c r="I655" t="n">
+        <v>349.442380952381</v>
+      </c>
+      <c r="J655" t="n">
+        <v>349.7566666666667</v>
+      </c>
+      <c r="K655" t="n">
+        <v>350.8033333333333</v>
+      </c>
+      <c r="L655" t="n">
+        <v>363.7833333333333</v>
+      </c>
+      <c r="M655" t="n">
+        <v>370.71</v>
+      </c>
+      <c r="N655" t="n">
+        <v>370.8270588235294</v>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>341.3933333333333</v>
+      </c>
+      <c r="C656" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="D656" t="n">
+        <v>340.25</v>
+      </c>
+      <c r="E656" t="n">
+        <v>331.4066666666667</v>
+      </c>
+      <c r="F656" t="n">
+        <v>356.9733333333334</v>
+      </c>
+      <c r="G656" t="n">
+        <v>345.2180952380953</v>
+      </c>
+      <c r="H656" t="n">
+        <v>359.7111111111111</v>
+      </c>
+      <c r="I656" t="n">
+        <v>356.8280952380952</v>
+      </c>
+      <c r="J656" t="n">
+        <v>352.9766666666667</v>
+      </c>
+      <c r="K656" t="n">
+        <v>355.7033333333333</v>
+      </c>
+      <c r="L656" t="n">
+        <v>368.4833333333333</v>
+      </c>
+      <c r="M656" t="n">
+        <v>373.36</v>
+      </c>
+      <c r="N656" t="n">
+        <v>373.5188235294117</v>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>329.03</v>
+      </c>
+      <c r="C657" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="D657" t="n">
+        <v>334.79</v>
+      </c>
+      <c r="E657" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="F657" t="n">
+        <v>349.46</v>
+      </c>
+      <c r="G657" t="n">
+        <v>341.8285714285714</v>
+      </c>
+      <c r="H657" t="n">
+        <v>354.3433333333333</v>
+      </c>
+      <c r="I657" t="n">
+        <v>356.5285714285715</v>
+      </c>
+      <c r="J657" t="n">
+        <v>350.42</v>
+      </c>
+      <c r="K657" t="n">
+        <v>351.82</v>
+      </c>
+      <c r="L657" t="n">
+        <v>363.83</v>
+      </c>
+      <c r="M657" t="n">
+        <v>365.45</v>
+      </c>
+      <c r="N657" t="n">
+        <v>372.0641176470588</v>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>326.31</v>
+      </c>
+      <c r="C658" t="n">
+        <v>329.555</v>
+      </c>
+      <c r="D658" t="n">
+        <v>331.305</v>
+      </c>
+      <c r="E658" t="n">
+        <v>328.72</v>
+      </c>
+      <c r="F658" t="n">
+        <v>347.62</v>
+      </c>
+      <c r="G658" t="n">
+        <v>341.5628571428572</v>
+      </c>
+      <c r="H658" t="n">
+        <v>348.84</v>
+      </c>
+      <c r="I658" t="n">
+        <v>341.0928571428572</v>
+      </c>
+      <c r="J658" t="n">
+        <v>335.94</v>
+      </c>
+      <c r="K658" t="n">
+        <v>348.8</v>
+      </c>
+      <c r="L658" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="M658" t="n">
+        <v>360.26</v>
+      </c>
+      <c r="N658" t="n">
+        <v>362.6111764705882</v>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30079,7 +30483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36717,6 +37121,86 @@
       </c>
       <c r="B663" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -36890,28 +37374,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9480916480022569</v>
+        <v>0.9268370006974697</v>
       </c>
       <c r="J2" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2757607043003296</v>
+        <v>0.2700558846228535</v>
       </c>
       <c r="M2" t="n">
-        <v>9.254133737866074</v>
+        <v>9.248014412916882</v>
       </c>
       <c r="N2" t="n">
-        <v>127.849317591151</v>
+        <v>127.7519816812351</v>
       </c>
       <c r="O2" t="n">
-        <v>11.30704725342346</v>
+        <v>11.30274221953394</v>
       </c>
       <c r="P2" t="n">
-        <v>322.7121607990861</v>
+        <v>322.9241819368957</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36968,28 +37452,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7022111043245237</v>
+        <v>0.68423882318371</v>
       </c>
       <c r="J3" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K3" t="n">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1666156040803912</v>
+        <v>0.1623303155854925</v>
       </c>
       <c r="M3" t="n">
-        <v>9.350816485306332</v>
+        <v>9.318383925780729</v>
       </c>
       <c r="N3" t="n">
-        <v>132.9520835923698</v>
+        <v>132.2582670674605</v>
       </c>
       <c r="O3" t="n">
-        <v>11.53048496778734</v>
+        <v>11.50035943209866</v>
       </c>
       <c r="P3" t="n">
-        <v>329.8087592628908</v>
+        <v>329.9895624459269</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37046,28 +37530,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4787992196732183</v>
+        <v>0.4634698189279048</v>
       </c>
       <c r="J4" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K4" t="n">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08734571448172579</v>
+        <v>0.08408153710790323</v>
       </c>
       <c r="M4" t="n">
-        <v>9.06156915235217</v>
+        <v>9.021757536998852</v>
       </c>
       <c r="N4" t="n">
-        <v>129.7940814578455</v>
+        <v>128.7028873935963</v>
       </c>
       <c r="O4" t="n">
-        <v>11.39272054681609</v>
+        <v>11.34472949847621</v>
       </c>
       <c r="P4" t="n">
-        <v>333.6591310216471</v>
+        <v>333.8135015696237</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37124,28 +37608,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.712135673918754</v>
+        <v>-1.729150286517521</v>
       </c>
       <c r="J5" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08461099963000029</v>
+        <v>0.08814667650777885</v>
       </c>
       <c r="M5" t="n">
-        <v>27.27942301082505</v>
+        <v>27.04494867865873</v>
       </c>
       <c r="N5" t="n">
-        <v>1664.196210538156</v>
+        <v>1642.667464685246</v>
       </c>
       <c r="O5" t="n">
-        <v>40.79456104112601</v>
+        <v>40.52983425435201</v>
       </c>
       <c r="P5" t="n">
-        <v>376.8640787779959</v>
+        <v>377.0429432876266</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37202,28 +37686,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6340176539075222</v>
+        <v>0.6194681027185323</v>
       </c>
       <c r="J6" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K6" t="n">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1602616074822513</v>
+        <v>0.1567676729802221</v>
       </c>
       <c r="M6" t="n">
-        <v>8.403588546007141</v>
+        <v>8.396553957832376</v>
       </c>
       <c r="N6" t="n">
-        <v>114.126704327533</v>
+        <v>113.4638181901286</v>
       </c>
       <c r="O6" t="n">
-        <v>10.68301007804135</v>
+        <v>10.65193964450271</v>
       </c>
       <c r="P6" t="n">
-        <v>343.5652074145743</v>
+        <v>343.7121648954569</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37280,28 +37764,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6599698261037348</v>
+        <v>0.6356585505578167</v>
       </c>
       <c r="J7" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K7" t="n">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1831969114082475</v>
+        <v>0.1747003062330978</v>
       </c>
       <c r="M7" t="n">
-        <v>7.872487180924046</v>
+        <v>7.871873934023894</v>
       </c>
       <c r="N7" t="n">
-        <v>104.4401485358165</v>
+        <v>104.1087805519373</v>
       </c>
       <c r="O7" t="n">
-        <v>10.21959630004124</v>
+        <v>10.20337103862921</v>
       </c>
       <c r="P7" t="n">
-        <v>336.5445297890347</v>
+        <v>336.7917804737658</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37358,28 +37842,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8959248282291276</v>
+        <v>0.8815400410308014</v>
       </c>
       <c r="J8" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K8" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1995925197395064</v>
+        <v>0.1981449586158848</v>
       </c>
       <c r="M8" t="n">
-        <v>10.50982397880405</v>
+        <v>10.44972043242872</v>
       </c>
       <c r="N8" t="n">
-        <v>174.6939427363531</v>
+        <v>173.0558675654272</v>
       </c>
       <c r="O8" t="n">
-        <v>13.21718361589764</v>
+        <v>13.15507003270706</v>
       </c>
       <c r="P8" t="n">
-        <v>340.1420522295398</v>
+        <v>340.2873639592642</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37436,28 +37920,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6901873961840902</v>
+        <v>0.6823516847915835</v>
       </c>
       <c r="J9" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K9" t="n">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1195792294297646</v>
+        <v>0.1199403648170794</v>
       </c>
       <c r="M9" t="n">
-        <v>10.93628808916639</v>
+        <v>10.8604068521026</v>
       </c>
       <c r="N9" t="n">
-        <v>188.9292592331473</v>
+        <v>186.8508970786307</v>
       </c>
       <c r="O9" t="n">
-        <v>13.74515402726165</v>
+        <v>13.66934150128055</v>
       </c>
       <c r="P9" t="n">
-        <v>339.0216628606464</v>
+        <v>339.1007989435208</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37514,28 +37998,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6420147165046279</v>
+        <v>0.6264361378420557</v>
       </c>
       <c r="J10" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K10" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L10" t="n">
-        <v>0.117291989760325</v>
+        <v>0.1140480075325698</v>
       </c>
       <c r="M10" t="n">
-        <v>10.46260336430554</v>
+        <v>10.42296781440169</v>
       </c>
       <c r="N10" t="n">
-        <v>171.0849350418533</v>
+        <v>170.5267273634811</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07994399995097</v>
+        <v>13.05858826073788</v>
       </c>
       <c r="P10" t="n">
-        <v>337.0036835699402</v>
+        <v>337.1592303037492</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -37592,28 +38076,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5347213122599634</v>
+        <v>0.5247485893369911</v>
       </c>
       <c r="J11" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K11" t="n">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="L11" t="n">
-        <v>0.154004647061927</v>
+        <v>0.151658478547994</v>
       </c>
       <c r="M11" t="n">
-        <v>7.258346565269775</v>
+        <v>7.247329791997386</v>
       </c>
       <c r="N11" t="n">
-        <v>85.71406111306401</v>
+        <v>85.26060566309725</v>
       </c>
       <c r="O11" t="n">
-        <v>9.258188867865249</v>
+        <v>9.233666967304877</v>
       </c>
       <c r="P11" t="n">
-        <v>344.1485858337599</v>
+        <v>344.2489599172182</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37670,28 +38154,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7635032471458603</v>
+        <v>0.7664135854078314</v>
       </c>
       <c r="J12" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K12" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L12" t="n">
-        <v>0.14717611846333</v>
+        <v>0.1509839826978454</v>
       </c>
       <c r="M12" t="n">
-        <v>10.63283637632199</v>
+        <v>10.58195999087691</v>
       </c>
       <c r="N12" t="n">
-        <v>185.8921683779955</v>
+        <v>184.4608098492107</v>
       </c>
       <c r="O12" t="n">
-        <v>13.63422782477965</v>
+        <v>13.58163502120458</v>
       </c>
       <c r="P12" t="n">
-        <v>347.2138877852161</v>
+        <v>347.1852069524579</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -37748,28 +38232,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5198137593911973</v>
+        <v>0.524975112980038</v>
       </c>
       <c r="J13" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K13" t="n">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="L13" t="n">
-        <v>0.106572374727106</v>
+        <v>0.1107759811556984</v>
       </c>
       <c r="M13" t="n">
-        <v>8.290439509244164</v>
+        <v>8.253517909961628</v>
       </c>
       <c r="N13" t="n">
-        <v>125.0450039267092</v>
+        <v>123.9468459447955</v>
       </c>
       <c r="O13" t="n">
-        <v>11.18235234316596</v>
+        <v>11.13314178230007</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1249684865355</v>
+        <v>357.0737802504457</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -37826,28 +38310,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4164788820987396</v>
+        <v>0.4336075502727204</v>
       </c>
       <c r="J14" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K14" t="n">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05609899415116337</v>
+        <v>0.06193467828024224</v>
       </c>
       <c r="M14" t="n">
-        <v>9.96344693194311</v>
+        <v>9.90091654640139</v>
       </c>
       <c r="N14" t="n">
-        <v>159.9291286765911</v>
+        <v>158.3617359817263</v>
       </c>
       <c r="O14" t="n">
-        <v>12.64630889534931</v>
+        <v>12.58418594831331</v>
       </c>
       <c r="P14" t="n">
-        <v>355.4022748032681</v>
+        <v>355.2311347597429</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -37885,7 +38369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O650"/>
+  <dimension ref="A1:O658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80855,6 +81339,614 @@
         </is>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-37.169337525311455,175.88224819122235</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-37.1699931759442,175.8826282248805</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-37.170641404563185,175.8830402220799</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-37.171155597345546,175.88321295975481</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-37.17178664921225,175.8832576981207</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-37.172499365044146,175.88305608762124</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-37.173223334173045,175.8831620754917</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-37.17394154135458,175.88326290863358</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-37.17467331223396,175.8832234959324</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-37.17534779292215,175.88351164900666</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>-37.17602906018244,175.88386437561624</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>-37.176726568727595,175.8840337955808</t>
+        </is>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>-37.177410907605456,175.88426351433753</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-37.16932145314673,175.8822959097172</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-37.169961754545255,175.8827061773259</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-37.17059701217503,175.8831337952979</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-37.17178294340787,175.8832360142012</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-37.17249955914852,175.88306085695652</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-37.1732176419963,175.88323296677788</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-37.173913540275805,175.8834042238855</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-37.17461483259199,175.88358652574067</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-37.175321118999996,175.8837331452311</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>-37.17600214433786,175.88408787716565</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>-37.17670508722614,175.8841553580092</t>
+        </is>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>-37.17739125103729,175.8843472120496</t>
+        </is>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-37.16929396737305,175.88237751520975</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-37.16998715908434,175.8826431519497</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-37.170627831936635,175.88306883138927</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr"/>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-37.17181548035689,175.88342639981192</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-37.17250286956794,175.88314219794455</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-37.173219798174216,175.88320611345392</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-37.17391315884476,175.88340614887707</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-37.17462933114188,175.88349652236073</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-37.17532291961429,175.8837181933142</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>-37.17601096888448,175.8840146010308</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>-37.176713147659164,175.8841097446296</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>-37.17738374887969,175.88437915617686</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-37.169308315885345,175.88233491438413</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-37.169975064582864,175.88267315685917</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-37.17061462675227,175.88309666615558</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-37.171166780100634,175.88302043980005</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-37.17179471919859,175.8833049184391</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-37.17250123680362,175.88310207878743</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-37.17321456658474,175.88327126822549</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-37.17392696869086,175.88333645376244</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-37.17462256476527,175.88353852639491</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-37.17532314301543,175.88371633823758</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>-37.17601871210808,175.8839503035248</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>-37.17669718215826,175.88420009208423</t>
+        </is>
+      </c>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>-37.17739658967974,175.88432448012665</t>
+        </is>
+      </c>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-37.16934765775366,175.88221810781246</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-37.17001554162981,175.88257273837937</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-37.17064553835678,175.88303150858258</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-37.171140260490155,175.88347698699536</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-37.17177733766559,175.88320321314887</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-37.172499846710224,175.88306792263842</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-37.173229314060706,175.88308760042932</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-37.173940366141416,175.8832688396935</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-37.17463280319988,175.8834749686236</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-37.175336868727015,175.88360236230662</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>-37.17602922103285,175.88386303994903</t>
+        </is>
+      </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>-37.17672297553738,175.8840541292654</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>-37.17740509151133,175.8842882793099</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-37.169331236205714,175.88226686367938</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-37.1699996384954,175.8826121920997</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-37.170641106011395,175.88304085138802</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-37.17114892014705,175.88332791040804</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-37.17179202920529,175.88328917833198</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-37.17250028850873,175.8830787780952</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-37.17322119698892,175.88318869239006</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-37.17392437702825,175.8833495333046</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-37.17462707963466,175.88351049918566</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>-37.175330300773055,175.8836569015765</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>-37.17602292104729,175.88391535357567</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>-37.17671782852925,175.88408325589094</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>-37.17739826378643,175.8843173517812</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-37.1693744329881,175.88213861149669</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-37.170036509437615,175.88252071975367</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-37.1706661843502,175.8829879894896</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-37.171150652490766,175.88329808760128</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-37.17177789573207,175.88320647857785</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-37.172498737852564,175.88304067694094</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-37.17322602387931,175.88312857726999</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-37.173925025459475,175.88334626081783</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-37.17463162412259,175.883482288067</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>-37.175335505990304,175.8836136782785</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>-37.176029158479906,175.8838635593752</t>
+        </is>
+      </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>-37.176733191842196,175.8839963156484</t>
+        </is>
+      </c>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>-37.177401953683194,175.88430164019502</t>
+        </is>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-37.169383936495294,175.88211039530427</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-37.170051278054444,175.88248408052976</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-37.17068219130022,175.88295424886348</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-37.17115067205295,175.8832977508318</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-37.1717744344643,175.88318622558097</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-37.172498616291755,175.88303769008454</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-37.17323097263454,175.88306694401842</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-37.17395844171256,175.88317761580717</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-37.1746573622716,175.88332251081204</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>-37.17533955398542,175.88358006427538</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>-37.17604758915859,175.88371051413264</t>
+        </is>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>-37.176743272161545,175.88393927139708</t>
+        </is>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>-37.177425931248585,175.88419954343422</t>
+        </is>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O658"/>
+  <dimension ref="A1:O660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30472,6 +30472,108 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>337.12</v>
+      </c>
+      <c r="C659" t="n">
+        <v>342.015</v>
+      </c>
+      <c r="D659" t="n">
+        <v>341.095</v>
+      </c>
+      <c r="E659" t="n">
+        <v>334.64</v>
+      </c>
+      <c r="F659" t="n">
+        <v>356.14</v>
+      </c>
+      <c r="G659" t="n">
+        <v>350.8242857142857</v>
+      </c>
+      <c r="H659" t="n">
+        <v>360.13</v>
+      </c>
+      <c r="I659" t="n">
+        <v>357.0642857142857</v>
+      </c>
+      <c r="J659" t="n">
+        <v>350.29</v>
+      </c>
+      <c r="K659" t="n">
+        <v>360.29</v>
+      </c>
+      <c r="L659" t="n">
+        <v>371.47</v>
+      </c>
+      <c r="M659" t="n">
+        <v>372.95</v>
+      </c>
+      <c r="N659" t="n">
+        <v>367.8258823529412</v>
+      </c>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>329.4766666666666</v>
+      </c>
+      <c r="C660" t="n">
+        <v>335.13</v>
+      </c>
+      <c r="D660" t="n">
+        <v>339.66</v>
+      </c>
+      <c r="E660" t="n">
+        <v>349.1333333333333</v>
+      </c>
+      <c r="F660" t="n">
+        <v>341.0066666666667</v>
+      </c>
+      <c r="G660" t="n">
+        <v>338.627619047619</v>
+      </c>
+      <c r="H660" t="n">
+        <v>353.2955555555556</v>
+      </c>
+      <c r="I660" t="n">
+        <v>338.067619047619</v>
+      </c>
+      <c r="J660" t="n">
+        <v>339.5833333333333</v>
+      </c>
+      <c r="K660" t="n">
+        <v>355.3066666666667</v>
+      </c>
+      <c r="L660" t="n">
+        <v>361.1066666666666</v>
+      </c>
+      <c r="M660" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="N660" t="n">
+        <v>354.5347058823529</v>
+      </c>
+      <c r="O660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30483,7 +30585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37201,6 +37303,26 @@
       </c>
       <c r="B671" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -37374,28 +37496,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9268370006974697</v>
+        <v>0.9171739864462926</v>
       </c>
       <c r="J2" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2700558846228535</v>
+        <v>0.2663090568270194</v>
       </c>
       <c r="M2" t="n">
-        <v>9.248014412916882</v>
+        <v>9.263732939454025</v>
       </c>
       <c r="N2" t="n">
-        <v>127.7519816812351</v>
+        <v>128.0069503265485</v>
       </c>
       <c r="O2" t="n">
-        <v>11.30274221953394</v>
+        <v>11.31401565875479</v>
       </c>
       <c r="P2" t="n">
-        <v>322.9241819368957</v>
+        <v>323.0209758364767</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37452,28 +37574,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.68423882318371</v>
+        <v>0.6777516064244777</v>
       </c>
       <c r="J3" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1623303155854925</v>
+        <v>0.1604111438957471</v>
       </c>
       <c r="M3" t="n">
-        <v>9.318383925780729</v>
+        <v>9.316617240138138</v>
       </c>
       <c r="N3" t="n">
-        <v>132.2582670674605</v>
+        <v>132.1124730539817</v>
       </c>
       <c r="O3" t="n">
-        <v>11.50035943209866</v>
+        <v>11.49401901225075</v>
       </c>
       <c r="P3" t="n">
-        <v>329.9895624459269</v>
+        <v>330.055091966523</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37530,28 +37652,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4634698189279048</v>
+        <v>0.4596229189978837</v>
       </c>
       <c r="J4" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08408153710790323</v>
+        <v>0.08330816980608313</v>
       </c>
       <c r="M4" t="n">
-        <v>9.021757536998852</v>
+        <v>9.008473780006369</v>
       </c>
       <c r="N4" t="n">
-        <v>128.7028873935963</v>
+        <v>128.3265446961152</v>
       </c>
       <c r="O4" t="n">
-        <v>11.34472949847621</v>
+        <v>11.32813067968918</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8135015696237</v>
+        <v>333.8524079463159</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37608,28 +37730,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.729150286517521</v>
+        <v>-1.720729050168685</v>
       </c>
       <c r="J5" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08814667650777885</v>
+        <v>0.08803224503133489</v>
       </c>
       <c r="M5" t="n">
-        <v>27.04494867865873</v>
+        <v>26.95281063403545</v>
       </c>
       <c r="N5" t="n">
-        <v>1642.667464685246</v>
+        <v>1635.3973715713</v>
       </c>
       <c r="O5" t="n">
-        <v>40.52983425435201</v>
+        <v>40.44004663166574</v>
       </c>
       <c r="P5" t="n">
-        <v>377.0429432876266</v>
+        <v>376.9537794641539</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37686,28 +37808,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6194681027185323</v>
+        <v>0.6116915720974863</v>
       </c>
       <c r="J6" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1567676729802221</v>
+        <v>0.1536310960679537</v>
       </c>
       <c r="M6" t="n">
-        <v>8.396553957832376</v>
+        <v>8.409571466316715</v>
       </c>
       <c r="N6" t="n">
-        <v>113.4638181901286</v>
+        <v>113.7115342585962</v>
       </c>
       <c r="O6" t="n">
-        <v>10.65193964450271</v>
+        <v>10.66356104960234</v>
       </c>
       <c r="P6" t="n">
-        <v>343.7121648954569</v>
+        <v>343.7910916399516</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37764,28 +37886,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6356585505578167</v>
+        <v>0.6297895378553245</v>
       </c>
       <c r="J7" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1747003062330978</v>
+        <v>0.172510769461523</v>
       </c>
       <c r="M7" t="n">
-        <v>7.871873934023894</v>
+        <v>7.871149770633252</v>
       </c>
       <c r="N7" t="n">
-        <v>104.1087805519373</v>
+        <v>104.1242876989553</v>
       </c>
       <c r="O7" t="n">
-        <v>10.20337103862921</v>
+        <v>10.20413091345634</v>
       </c>
       <c r="P7" t="n">
-        <v>336.7917804737658</v>
+        <v>336.8518162705317</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37842,28 +37964,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8815400410308014</v>
+        <v>0.8772550771448204</v>
       </c>
       <c r="J8" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K8" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1981449586158848</v>
+        <v>0.1975422998957197</v>
       </c>
       <c r="M8" t="n">
-        <v>10.44972043242872</v>
+        <v>10.43451045019819</v>
       </c>
       <c r="N8" t="n">
-        <v>173.0558675654272</v>
+        <v>172.6150077967769</v>
       </c>
       <c r="O8" t="n">
-        <v>13.15507003270706</v>
+        <v>13.13830307904247</v>
       </c>
       <c r="P8" t="n">
-        <v>340.2873639592642</v>
+        <v>340.3308533896897</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -37920,28 +38042,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6823516847915835</v>
+        <v>0.6758046103377313</v>
       </c>
       <c r="J9" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K9" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1199403648170794</v>
+        <v>0.1183353329181913</v>
       </c>
       <c r="M9" t="n">
-        <v>10.8604068521026</v>
+        <v>10.86303929632369</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8508970786307</v>
+        <v>186.7990342880164</v>
       </c>
       <c r="O9" t="n">
-        <v>13.66934150128055</v>
+        <v>13.66744432174561</v>
       </c>
       <c r="P9" t="n">
-        <v>339.1007989435208</v>
+        <v>339.1671844482819</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -37998,28 +38120,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6264361378420557</v>
+        <v>0.6206080731954138</v>
       </c>
       <c r="J10" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K10" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1140480075325698</v>
+        <v>0.1126767896648141</v>
       </c>
       <c r="M10" t="n">
-        <v>10.42296781440169</v>
+        <v>10.41623595183393</v>
       </c>
       <c r="N10" t="n">
-        <v>170.5267273634811</v>
+        <v>170.2550368284498</v>
       </c>
       <c r="O10" t="n">
-        <v>13.05858826073788</v>
+        <v>13.04818136095793</v>
       </c>
       <c r="P10" t="n">
-        <v>337.1592303037492</v>
+        <v>337.2177803057332</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38076,28 +38198,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5247485893369911</v>
+        <v>0.5247497540437199</v>
       </c>
       <c r="J11" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K11" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L11" t="n">
-        <v>0.151658478547994</v>
+        <v>0.1525577525918275</v>
       </c>
       <c r="M11" t="n">
-        <v>7.247329791997386</v>
+        <v>7.229472410311218</v>
       </c>
       <c r="N11" t="n">
-        <v>85.26060566309725</v>
+        <v>84.96352478574646</v>
       </c>
       <c r="O11" t="n">
-        <v>9.233666967304877</v>
+        <v>9.217566098799967</v>
       </c>
       <c r="P11" t="n">
-        <v>344.2489599172182</v>
+        <v>344.2489581101799</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38154,28 +38276,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7664135854078314</v>
+        <v>0.7659279649168796</v>
       </c>
       <c r="J12" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K12" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1509839826978454</v>
+        <v>0.1517001853196046</v>
       </c>
       <c r="M12" t="n">
-        <v>10.58195999087691</v>
+        <v>10.5617817617545</v>
       </c>
       <c r="N12" t="n">
-        <v>184.4608098492107</v>
+        <v>183.8601710006193</v>
       </c>
       <c r="O12" t="n">
-        <v>13.58163502120458</v>
+        <v>13.55950482136495</v>
       </c>
       <c r="P12" t="n">
-        <v>347.1852069524579</v>
+        <v>347.1900990024496</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38232,28 +38354,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.524975112980038</v>
+        <v>0.5240145595665874</v>
       </c>
       <c r="J13" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K13" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1107759811556984</v>
+        <v>0.1111097614796532</v>
       </c>
       <c r="M13" t="n">
-        <v>8.253517909961628</v>
+        <v>8.23584446170195</v>
       </c>
       <c r="N13" t="n">
-        <v>123.9468459447955</v>
+        <v>123.5218541258225</v>
       </c>
       <c r="O13" t="n">
-        <v>11.13314178230007</v>
+        <v>11.1140386055575</v>
       </c>
       <c r="P13" t="n">
-        <v>357.0737802504457</v>
+        <v>357.0834209596993</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38310,28 +38432,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4336075502727204</v>
+        <v>0.4298884112641141</v>
       </c>
       <c r="J14" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K14" t="n">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06193467828024224</v>
+        <v>0.06126732782240996</v>
       </c>
       <c r="M14" t="n">
-        <v>9.90091654640139</v>
+        <v>9.891752543191989</v>
       </c>
       <c r="N14" t="n">
-        <v>158.3617359817263</v>
+        <v>158.0304988077058</v>
       </c>
       <c r="O14" t="n">
-        <v>12.58418594831331</v>
+        <v>12.5710182088686</v>
       </c>
       <c r="P14" t="n">
-        <v>355.2311347597429</v>
+        <v>355.2685642233317</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38369,7 +38491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O658"/>
+  <dimension ref="A1:O660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81947,6 +82069,160 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-37.169346167003994,175.8822225338779</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-37.1700007932457,175.88260932730788</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-37.17063722483794,175.88304903239288</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-37.17114681176381,175.8833642066698</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-37.17179046160913,175.88328000577582</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-37.172502853229474,175.88314179648535</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-37.17322082030836,175.88319338363377</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>-37.17392386570564,175.88335211383466</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>-37.174631855198086,175.88348085360326</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>-37.175324152788264,175.88370795329118</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>-37.17601891764039,175.8839485968395</t>
+        </is>
+      </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>-37.17671862485928,175.88407874950767</t>
+        </is>
+      </c>
+      <c r="N659" t="inlineStr">
+        <is>
+          <t>-37.177412704058334,175.8842558650225</t>
+        </is>
+      </c>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-37.16937287236253,175.88214324503735</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-37.17002868956209,175.8825401199403</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-37.17064381594285,175.88303513920658</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-37.17113736085455,175.88352690369368</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-37.17176199393638,175.8831134322144</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-37.17249727345367,175.8830046954919</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-37.17322696607359,175.8831168429368</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-37.173964990920204,175.8831445631348</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-37.17465088627934,175.88336271260522</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>-37.17533083246547,175.88365248649316</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>-37.17603280888677,175.88383324714863</t>
+        </is>
+      </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>-37.17673282281267,175.88399840397327</t>
+        </is>
+      </c>
+      <c r="N660" t="inlineStr">
+        <is>
+          <t>-37.17744641730242,175.88411231322783</t>
+        </is>
+      </c>
+      <c r="O660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O660"/>
+  <dimension ref="A1:O662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30574,6 +30574,104 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>340.7233333333334</v>
+      </c>
+      <c r="C661" t="n">
+        <v>346.51</v>
+      </c>
+      <c r="D661" t="n">
+        <v>341.37</v>
+      </c>
+      <c r="E661" t="n">
+        <v>373.9966666666666</v>
+      </c>
+      <c r="F661" t="n">
+        <v>357.1633333333334</v>
+      </c>
+      <c r="G661" t="n">
+        <v>353.5252380952381</v>
+      </c>
+      <c r="H661" t="n">
+        <v>360.7111111111111</v>
+      </c>
+      <c r="I661" t="n">
+        <v>364.6652380952381</v>
+      </c>
+      <c r="J661" t="n">
+        <v>355.8966666666667</v>
+      </c>
+      <c r="K661" t="n">
+        <v>366.5533333333333</v>
+      </c>
+      <c r="L661" t="n">
+        <v>378.3233333333334</v>
+      </c>
+      <c r="M661" t="n">
+        <v>397.52</v>
+      </c>
+      <c r="N661" t="inlineStr"/>
+      <c r="O661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>323.1466666666666</v>
+      </c>
+      <c r="C662" t="n">
+        <v>330.4</v>
+      </c>
+      <c r="D662" t="n">
+        <v>332.39</v>
+      </c>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="n">
+        <v>338.8066666666666</v>
+      </c>
+      <c r="G662" t="n">
+        <v>341.3947619047619</v>
+      </c>
+      <c r="H662" t="n">
+        <v>349.7588888888889</v>
+      </c>
+      <c r="I662" t="n">
+        <v>350.3647619047619</v>
+      </c>
+      <c r="J662" t="n">
+        <v>336.6833333333333</v>
+      </c>
+      <c r="K662" t="n">
+        <v>346.4366666666667</v>
+      </c>
+      <c r="L662" t="n">
+        <v>361.4766666666666</v>
+      </c>
+      <c r="M662" t="n">
+        <v>362.23</v>
+      </c>
+      <c r="N662" t="n">
+        <v>362.9905882352941</v>
+      </c>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30585,7 +30683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37323,6 +37421,26 @@
       </c>
       <c r="B673" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -37496,28 +37614,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9171739864462926</v>
+        <v>0.9066535322767041</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K2" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2663090568270194</v>
+        <v>0.2616399060767749</v>
       </c>
       <c r="M2" t="n">
-        <v>9.263732939454025</v>
+        <v>9.283520291659672</v>
       </c>
       <c r="N2" t="n">
-        <v>128.0069503265485</v>
+        <v>128.6251520514477</v>
       </c>
       <c r="O2" t="n">
-        <v>11.31401565875479</v>
+        <v>11.34130292565399</v>
       </c>
       <c r="P2" t="n">
-        <v>323.0209758364767</v>
+        <v>323.1267185501135</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37574,28 +37692,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6777516064244777</v>
+        <v>0.6712498073505753</v>
       </c>
       <c r="J3" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K3" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1604111438957471</v>
+        <v>0.158274381539568</v>
       </c>
       <c r="M3" t="n">
-        <v>9.316617240138138</v>
+        <v>9.31520468591104</v>
       </c>
       <c r="N3" t="n">
-        <v>132.1124730539817</v>
+        <v>132.1703368923457</v>
       </c>
       <c r="O3" t="n">
-        <v>11.49401901225075</v>
+        <v>11.4965358648745</v>
       </c>
       <c r="P3" t="n">
-        <v>330.055091966523</v>
+        <v>330.1210003937543</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37652,28 +37770,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4596229189978837</v>
+        <v>0.4533332372063081</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K4" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08330816980608313</v>
+        <v>0.08156779230798983</v>
       </c>
       <c r="M4" t="n">
-        <v>9.008473780006369</v>
+        <v>9.009502778024146</v>
       </c>
       <c r="N4" t="n">
-        <v>128.3265446961152</v>
+        <v>128.2119160947894</v>
       </c>
       <c r="O4" t="n">
-        <v>11.32813067968918</v>
+        <v>11.32307008256989</v>
       </c>
       <c r="P4" t="n">
-        <v>333.8524079463159</v>
+        <v>333.9162454506438</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37730,28 +37848,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.720729050168685</v>
+        <v>-1.702298396735609</v>
       </c>
       <c r="J5" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K5" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08803224503133489</v>
+        <v>0.08646314391107335</v>
       </c>
       <c r="M5" t="n">
-        <v>26.95281063403545</v>
+        <v>26.97191846498566</v>
       </c>
       <c r="N5" t="n">
-        <v>1635.3973715713</v>
+        <v>1635.590586910238</v>
       </c>
       <c r="O5" t="n">
-        <v>40.44004663166574</v>
+        <v>40.44243547204147</v>
       </c>
       <c r="P5" t="n">
-        <v>376.9537794641539</v>
+        <v>376.7581345977102</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37808,28 +37926,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6116915720974863</v>
+        <v>0.6035967831991075</v>
       </c>
       <c r="J6" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K6" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1536310960679537</v>
+        <v>0.1502128359679868</v>
       </c>
       <c r="M6" t="n">
-        <v>8.409571466316715</v>
+        <v>8.424139625274272</v>
       </c>
       <c r="N6" t="n">
-        <v>113.7115342585962</v>
+        <v>114.1002487725294</v>
       </c>
       <c r="O6" t="n">
-        <v>10.66356104960234</v>
+        <v>10.68177179930977</v>
       </c>
       <c r="P6" t="n">
-        <v>343.7910916399516</v>
+        <v>343.8735281491403</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -37886,28 +38004,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6297895378553245</v>
+        <v>0.6258642604095717</v>
       </c>
       <c r="J7" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K7" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L7" t="n">
-        <v>0.172510769461523</v>
+        <v>0.1713979689095873</v>
       </c>
       <c r="M7" t="n">
-        <v>7.871149770633252</v>
+        <v>7.862766783154975</v>
       </c>
       <c r="N7" t="n">
-        <v>104.1242876989553</v>
+        <v>103.994521915276</v>
       </c>
       <c r="O7" t="n">
-        <v>10.20413091345634</v>
+        <v>10.19777043844761</v>
       </c>
       <c r="P7" t="n">
-        <v>336.8518162705317</v>
+        <v>336.8921101477939</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -37964,28 +38082,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8772550771448204</v>
+        <v>0.8719967158340185</v>
       </c>
       <c r="J8" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K8" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1975422998957197</v>
+        <v>0.1964509081383856</v>
       </c>
       <c r="M8" t="n">
-        <v>10.43451045019819</v>
+        <v>10.42453093768855</v>
       </c>
       <c r="N8" t="n">
-        <v>172.6150077967769</v>
+        <v>172.3176878895686</v>
       </c>
       <c r="O8" t="n">
-        <v>13.13830307904247</v>
+        <v>13.12698319834259</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3308533896897</v>
+        <v>340.3844062863377</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38042,28 +38160,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6758046103377313</v>
+        <v>0.6764105889323017</v>
       </c>
       <c r="J9" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K9" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1183353329181913</v>
+        <v>0.1191954879631181</v>
       </c>
       <c r="M9" t="n">
-        <v>10.86303929632369</v>
+        <v>10.84835796012834</v>
       </c>
       <c r="N9" t="n">
-        <v>186.7990342880164</v>
+        <v>186.2920721060914</v>
       </c>
       <c r="O9" t="n">
-        <v>13.66744432174561</v>
+        <v>13.64888537962318</v>
       </c>
       <c r="P9" t="n">
-        <v>339.1671844482819</v>
+        <v>339.1610477167175</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38120,28 +38238,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6206080731954138</v>
+        <v>0.6157737029631238</v>
       </c>
       <c r="J10" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K10" t="n">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1126767896648141</v>
+        <v>0.1115290426496653</v>
       </c>
       <c r="M10" t="n">
-        <v>10.41623595183393</v>
+        <v>10.41419383075104</v>
       </c>
       <c r="N10" t="n">
-        <v>170.2550368284498</v>
+        <v>170.1441809852851</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04818136095793</v>
+        <v>13.04393272695337</v>
       </c>
       <c r="P10" t="n">
-        <v>337.2177803057332</v>
+        <v>337.2665321070825</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38198,28 +38316,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5247497540437199</v>
+        <v>0.5238166453012747</v>
       </c>
       <c r="J11" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K11" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1525577525918275</v>
+        <v>0.1524444411835361</v>
       </c>
       <c r="M11" t="n">
-        <v>7.229472410311218</v>
+        <v>7.240406953601643</v>
       </c>
       <c r="N11" t="n">
-        <v>84.96352478574646</v>
+        <v>85.03119628001937</v>
       </c>
       <c r="O11" t="n">
-        <v>9.217566098799967</v>
+        <v>9.221236157913935</v>
       </c>
       <c r="P11" t="n">
-        <v>344.2489581101799</v>
+        <v>344.2584648917118</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38276,28 +38394,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7659279649168796</v>
+        <v>0.767959087456424</v>
       </c>
       <c r="J12" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K12" t="n">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1517001853196046</v>
+        <v>0.1531271269567493</v>
       </c>
       <c r="M12" t="n">
-        <v>10.5617817617545</v>
+        <v>10.55182087707013</v>
       </c>
       <c r="N12" t="n">
-        <v>183.8601710006193</v>
+        <v>183.4619392735062</v>
       </c>
       <c r="O12" t="n">
-        <v>13.55950482136495</v>
+        <v>13.54481226424</v>
       </c>
       <c r="P12" t="n">
-        <v>347.1900990024496</v>
+        <v>347.1696846021003</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38354,28 +38472,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5240145595665874</v>
+        <v>0.5306186300761271</v>
       </c>
       <c r="J13" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K13" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1111097614796532</v>
+        <v>0.1131123116916651</v>
       </c>
       <c r="M13" t="n">
-        <v>8.23584446170195</v>
+        <v>8.271180164311714</v>
       </c>
       <c r="N13" t="n">
-        <v>123.5218541258225</v>
+        <v>124.581139227987</v>
       </c>
       <c r="O13" t="n">
-        <v>11.1140386055575</v>
+        <v>11.16159214574637</v>
       </c>
       <c r="P13" t="n">
-        <v>357.0834209596993</v>
+        <v>357.0170753612069</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38432,28 +38550,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4298884112641141</v>
+        <v>0.4286794692260045</v>
       </c>
       <c r="J14" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K14" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06126732782240996</v>
+        <v>0.06114921894271441</v>
       </c>
       <c r="M14" t="n">
-        <v>9.891752543191989</v>
+        <v>9.880455915014743</v>
       </c>
       <c r="N14" t="n">
-        <v>158.0304988077058</v>
+        <v>157.7520099670809</v>
       </c>
       <c r="O14" t="n">
-        <v>12.5710182088686</v>
+        <v>12.55993670235169</v>
       </c>
       <c r="P14" t="n">
-        <v>355.2685642233317</v>
+        <v>355.2807700163218</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38491,7 +38609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O660"/>
+  <dimension ref="A1:O662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51220,7 +51338,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>-37.176046070031234,175.8837231287741</t>
+          <t>-37.17604607003123,175.8837231287741</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -53085,7 +53203,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-37.169381246164875,175.88211838297713</t>
+          <t>-37.16938124616487,175.88211838297713</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -56485,7 +56603,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>-37.171136078400366,175.88354898079245</t>
+          <t>-37.17113607840036,175.88354898079245</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -63236,7 +63354,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>-37.17115074812809,175.88329644117275</t>
+          <t>-37.171150748128085,175.88329644117275</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -64026,7 +64144,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>-37.17250983115557,175.8833132570472</t>
+          <t>-37.17250983115558,175.8833132570472</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -72581,7 +72699,7 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>-37.176013153790656,175.88399645822773</t>
+          <t>-37.17601315379065,175.88399645822773</t>
         </is>
       </c>
       <c r="M525" t="inlineStr">
@@ -78304,7 +78422,7 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>-37.17601161676084,175.8840092212631</t>
+          <t>-37.17601161676083,175.8840092212631</t>
         </is>
       </c>
       <c r="M608" t="inlineStr">
@@ -81298,7 +81416,7 @@
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>-37.17738349970286,175.88438021716902</t>
+          <t>-37.17738349970287,175.88438021716902</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
@@ -82220,6 +82338,152 @@
       <c r="O660" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-37.16933357715096,175.8822599133763</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-37.16998258059721,175.88265451059334</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-37.17063596173404,175.8830516948499</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-37.17112114728951,175.88380601053373</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-37.17179238661711,175.88329126967483</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-37.17250408884948,175.8831721575078</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-37.17322029775119,175.88319989164552</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-37.173907410572156,175.88343515901806</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>-37.17462188931182,175.88354271944166</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>-37.17531575735833,175.8837776670632</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>-37.176009731216595,175.8840248782418</t>
+        </is>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>-37.17667090303002,175.88434880258316</t>
+        </is>
+      </c>
+      <c r="N661" t="inlineStr"/>
+      <c r="O661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-37.169394988972876,175.88207758013976</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-37.17004785432942,175.88249257439782</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-37.170677207788785,175.88296475347892</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-37.17175785544416,175.8830892166838</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-37.17249853939035,175.88303580054992</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-37.17323014634548,175.8830772348932</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-37.17393836930926,175.88327891729224</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>-37.174656041004354,175.88333071300835</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>-37.17534272178077,175.88355375927446</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>-37.1760323129323,175.88383736545623</t>
+        </is>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>-37.17673944591633,175.88396092403397</t>
+        </is>
+      </c>
+      <c r="N662" t="inlineStr">
+        <is>
+          <t>-37.17742496886507,175.88420364128316</t>
+        </is>
+      </c>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O662"/>
+  <dimension ref="A1:O666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30638,7 +30638,9 @@
       <c r="D662" t="n">
         <v>332.39</v>
       </c>
-      <c r="E662" t="inlineStr"/>
+      <c r="E662" t="n">
+        <v>291.9633333333333</v>
+      </c>
       <c r="F662" t="n">
         <v>338.8066666666666</v>
       </c>
@@ -30667,6 +30669,208 @@
         <v>362.9905882352941</v>
       </c>
       <c r="O662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>333.9933333333333</v>
+      </c>
+      <c r="C663" t="n">
+        <v>339.44</v>
+      </c>
+      <c r="D663" t="n">
+        <v>339.86</v>
+      </c>
+      <c r="E663" t="n">
+        <v>306.3766666666667</v>
+      </c>
+      <c r="F663" t="n">
+        <v>350.8933333333334</v>
+      </c>
+      <c r="G663" t="n">
+        <v>347.9666666666667</v>
+      </c>
+      <c r="H663" t="n">
+        <v>367.0177777777778</v>
+      </c>
+      <c r="I663" t="n">
+        <v>360.0566666666667</v>
+      </c>
+      <c r="J663" t="n">
+        <v>340.8966666666667</v>
+      </c>
+      <c r="K663" t="n">
+        <v>354.8133333333333</v>
+      </c>
+      <c r="L663" t="n">
+        <v>368.2233333333334</v>
+      </c>
+      <c r="M663" t="n">
+        <v>367.81</v>
+      </c>
+      <c r="N663" t="n">
+        <v>368.8217647058824</v>
+      </c>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>327.9966666666666</v>
+      </c>
+      <c r="C664" t="n">
+        <v>330.49</v>
+      </c>
+      <c r="D664" t="n">
+        <v>327.94</v>
+      </c>
+      <c r="E664" t="n">
+        <v>344.0333333333333</v>
+      </c>
+      <c r="F664" t="n">
+        <v>342.7866666666666</v>
+      </c>
+      <c r="G664" t="n">
+        <v>342.2233333333333</v>
+      </c>
+      <c r="H664" t="n">
+        <v>351.6722222222222</v>
+      </c>
+      <c r="I664" t="n">
+        <v>342.1733333333333</v>
+      </c>
+      <c r="J664" t="n">
+        <v>337.7333333333333</v>
+      </c>
+      <c r="K664" t="n">
+        <v>348.0566666666666</v>
+      </c>
+      <c r="L664" t="n">
+        <v>357.9166666666666</v>
+      </c>
+      <c r="M664" t="n">
+        <v>360.35</v>
+      </c>
+      <c r="N664" t="n">
+        <v>356.4382352941176</v>
+      </c>
+      <c r="O664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>331.64</v>
+      </c>
+      <c r="C665" t="n">
+        <v>334.685</v>
+      </c>
+      <c r="D665" t="n">
+        <v>334.205</v>
+      </c>
+      <c r="E665" t="n">
+        <v>343.35</v>
+      </c>
+      <c r="F665" t="n">
+        <v>343.39</v>
+      </c>
+      <c r="G665" t="n">
+        <v>343.4471428571428</v>
+      </c>
+      <c r="H665" t="n">
+        <v>352.7966666666667</v>
+      </c>
+      <c r="I665" t="n">
+        <v>346.0271428571428</v>
+      </c>
+      <c r="J665" t="n">
+        <v>337.95</v>
+      </c>
+      <c r="K665" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="L665" t="n">
+        <v>362.59</v>
+      </c>
+      <c r="M665" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="N665" t="n">
+        <v>354.32</v>
+      </c>
+      <c r="O665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>329.7233333333334</v>
+      </c>
+      <c r="C666" t="n">
+        <v>327.895</v>
+      </c>
+      <c r="D666" t="n">
+        <v>343.105</v>
+      </c>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="n">
+        <v>350.1133333333333</v>
+      </c>
+      <c r="G666" t="n">
+        <v>338.9452380952381</v>
+      </c>
+      <c r="H666" t="n">
+        <v>354.8077777777777</v>
+      </c>
+      <c r="I666" t="n">
+        <v>352.4552380952381</v>
+      </c>
+      <c r="J666" t="n">
+        <v>329.7966666666667</v>
+      </c>
+      <c r="K666" t="n">
+        <v>347.0333333333334</v>
+      </c>
+      <c r="L666" t="n">
+        <v>365.0033333333333</v>
+      </c>
+      <c r="M666" t="n">
+        <v>369.97</v>
+      </c>
+      <c r="N666" t="n">
+        <v>361.6752941176471</v>
+      </c>
+      <c r="O666" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -30683,7 +30887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37441,6 +37645,46 @@
       </c>
       <c r="B675" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -37614,28 +37858,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9066535322767041</v>
+        <v>0.884685225604923</v>
       </c>
       <c r="J2" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K2" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2616399060767749</v>
+        <v>0.2524005981180841</v>
       </c>
       <c r="M2" t="n">
-        <v>9.283520291659672</v>
+        <v>9.32782258417039</v>
       </c>
       <c r="N2" t="n">
-        <v>128.6251520514477</v>
+        <v>129.5088815858935</v>
       </c>
       <c r="O2" t="n">
-        <v>11.34130292565399</v>
+        <v>11.38019690453085</v>
       </c>
       <c r="P2" t="n">
-        <v>323.1267185501135</v>
+        <v>323.3478333692595</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37692,28 +37936,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6712498073505753</v>
+        <v>0.6511766551786314</v>
       </c>
       <c r="J3" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L3" t="n">
-        <v>0.158274381539568</v>
+        <v>0.1506483309724596</v>
       </c>
       <c r="M3" t="n">
-        <v>9.31520468591104</v>
+        <v>9.351026828145622</v>
       </c>
       <c r="N3" t="n">
-        <v>132.1703368923457</v>
+        <v>132.8345136789681</v>
       </c>
       <c r="O3" t="n">
-        <v>11.4965358648745</v>
+        <v>11.5253856195343</v>
       </c>
       <c r="P3" t="n">
-        <v>330.1210003937543</v>
+        <v>330.3247668648171</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -37770,28 +38014,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4533332372063081</v>
+        <v>0.4402776123528823</v>
       </c>
       <c r="J4" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K4" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08156779230798983</v>
+        <v>0.07784099196250349</v>
       </c>
       <c r="M4" t="n">
-        <v>9.009502778024146</v>
+        <v>9.014664295946044</v>
       </c>
       <c r="N4" t="n">
-        <v>128.2119160947894</v>
+        <v>128.146352129205</v>
       </c>
       <c r="O4" t="n">
-        <v>11.32307008256989</v>
+        <v>11.32017456266488</v>
       </c>
       <c r="P4" t="n">
-        <v>333.9162454506438</v>
+        <v>334.0489269935553</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -37848,28 +38092,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.702298396735609</v>
+        <v>-1.721720295917439</v>
       </c>
       <c r="J5" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K5" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08646314391107335</v>
+        <v>0.08935582546181431</v>
       </c>
       <c r="M5" t="n">
-        <v>26.97191846498566</v>
+        <v>26.94390611285051</v>
       </c>
       <c r="N5" t="n">
-        <v>1635.590586910238</v>
+        <v>1626.114315692652</v>
       </c>
       <c r="O5" t="n">
-        <v>40.44243547204147</v>
+        <v>40.32510775797942</v>
       </c>
       <c r="P5" t="n">
-        <v>376.7581345977102</v>
+        <v>376.9643960026332</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -37926,28 +38170,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6035967831991075</v>
+        <v>0.5862386353107532</v>
       </c>
       <c r="J6" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K6" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1502128359679868</v>
+        <v>0.1432968289065628</v>
       </c>
       <c r="M6" t="n">
-        <v>8.424139625274272</v>
+        <v>8.459925833524791</v>
       </c>
       <c r="N6" t="n">
-        <v>114.1002487725294</v>
+        <v>114.5287206262551</v>
       </c>
       <c r="O6" t="n">
-        <v>10.68177179930977</v>
+        <v>10.70180922210142</v>
       </c>
       <c r="P6" t="n">
-        <v>343.8735281491403</v>
+        <v>344.0505304885092</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38004,28 +38248,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6258642604095717</v>
+        <v>0.6123729508090213</v>
       </c>
       <c r="J7" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K7" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1713979689095873</v>
+        <v>0.1661881223851078</v>
       </c>
       <c r="M7" t="n">
-        <v>7.862766783154975</v>
+        <v>7.871642862731524</v>
       </c>
       <c r="N7" t="n">
-        <v>103.994521915276</v>
+        <v>104.021593215014</v>
       </c>
       <c r="O7" t="n">
-        <v>10.19777043844761</v>
+        <v>10.19909766670631</v>
       </c>
       <c r="P7" t="n">
-        <v>336.8921101477939</v>
+        <v>337.0307926007991</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38082,28 +38326,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8719967158340185</v>
+        <v>0.8635081101626877</v>
       </c>
       <c r="J8" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K8" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1964509081383856</v>
+        <v>0.1950346488868236</v>
       </c>
       <c r="M8" t="n">
-        <v>10.42453093768855</v>
+        <v>10.40903595841331</v>
       </c>
       <c r="N8" t="n">
-        <v>172.3176878895686</v>
+        <v>171.6409787001301</v>
       </c>
       <c r="O8" t="n">
-        <v>13.12698319834259</v>
+        <v>13.10118233977873</v>
       </c>
       <c r="P8" t="n">
-        <v>340.3844062863377</v>
+        <v>340.4710149654546</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38160,28 +38404,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6764105889323017</v>
+        <v>0.667316532411672</v>
       </c>
       <c r="J9" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K9" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1191954879631181</v>
+        <v>0.1175376812500674</v>
       </c>
       <c r="M9" t="n">
-        <v>10.84835796012834</v>
+        <v>10.83968613367009</v>
       </c>
       <c r="N9" t="n">
-        <v>186.2920721060914</v>
+        <v>185.5549981675968</v>
       </c>
       <c r="O9" t="n">
-        <v>13.64888537962318</v>
+        <v>13.62185736849409</v>
       </c>
       <c r="P9" t="n">
-        <v>339.1610477167175</v>
+        <v>339.2536921851089</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38238,28 +38482,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6157737029631238</v>
+        <v>0.5932122566785416</v>
       </c>
       <c r="J10" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K10" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1115290426496653</v>
+        <v>0.1044933403047387</v>
       </c>
       <c r="M10" t="n">
-        <v>10.41419383075104</v>
+        <v>10.46405376800219</v>
       </c>
       <c r="N10" t="n">
-        <v>170.1441809852851</v>
+        <v>171.0191354191759</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04393272695337</v>
+        <v>13.07742847119325</v>
       </c>
       <c r="P10" t="n">
-        <v>337.2665321070825</v>
+        <v>337.4943237128806</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38316,28 +38560,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5238166453012747</v>
+        <v>0.5140714067552803</v>
       </c>
       <c r="J11" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K11" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1524444411835361</v>
+        <v>0.1487816288934271</v>
       </c>
       <c r="M11" t="n">
-        <v>7.240406953601643</v>
+        <v>7.242191658549776</v>
       </c>
       <c r="N11" t="n">
-        <v>85.03119628001937</v>
+        <v>84.84855861701725</v>
       </c>
       <c r="O11" t="n">
-        <v>9.221236157913935</v>
+        <v>9.211327733666696</v>
       </c>
       <c r="P11" t="n">
-        <v>344.2584648917118</v>
+        <v>344.3575815263118</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38394,28 +38638,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.767959087456424</v>
+        <v>0.762925492557241</v>
       </c>
       <c r="J12" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K12" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1531271269567493</v>
+        <v>0.1531637835584552</v>
       </c>
       <c r="M12" t="n">
-        <v>10.55182087707013</v>
+        <v>10.50816004986403</v>
       </c>
       <c r="N12" t="n">
-        <v>183.4619392735062</v>
+        <v>182.2795600693676</v>
       </c>
       <c r="O12" t="n">
-        <v>13.54481226424</v>
+        <v>13.50109477299406</v>
       </c>
       <c r="P12" t="n">
-        <v>347.1696846021003</v>
+        <v>347.2204460370617</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38472,28 +38716,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5306186300761271</v>
+        <v>0.5224455543515684</v>
       </c>
       <c r="J13" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K13" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1131123116916651</v>
+        <v>0.1111852983953466</v>
       </c>
       <c r="M13" t="n">
-        <v>8.271180164311714</v>
+        <v>8.252905615448697</v>
       </c>
       <c r="N13" t="n">
-        <v>124.581139227987</v>
+        <v>124.0001881450543</v>
       </c>
       <c r="O13" t="n">
-        <v>11.16159214574637</v>
+        <v>11.13553717361916</v>
       </c>
       <c r="P13" t="n">
-        <v>357.0170753612069</v>
+        <v>357.0993930614749</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38550,28 +38794,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4286794692260045</v>
+        <v>0.4202235095789391</v>
       </c>
       <c r="J14" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K14" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06114921894271441</v>
+        <v>0.05953694568170032</v>
       </c>
       <c r="M14" t="n">
-        <v>9.880455915014743</v>
+        <v>9.868109011854925</v>
       </c>
       <c r="N14" t="n">
-        <v>157.7520099670809</v>
+        <v>157.0702784650847</v>
       </c>
       <c r="O14" t="n">
-        <v>12.55993670235169</v>
+        <v>12.53276818843645</v>
       </c>
       <c r="P14" t="n">
-        <v>355.2807700163218</v>
+        <v>355.3662716804411</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38609,7 +38853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O662"/>
+  <dimension ref="A1:O666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82435,7 +82679,11 @@
           <t>-37.170677207788785,175.88296475347892</t>
         </is>
       </c>
-      <c r="E662" t="inlineStr"/>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-37.171174639359194,175.88288513321214</t>
+        </is>
+      </c>
       <c r="F662" t="inlineStr">
         <is>
           <t>-37.17175785544416,175.8830892166838</t>
@@ -82482,6 +82730,310 @@
         </is>
       </c>
       <c r="O662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-37.16935709140016,175.88219009911288</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-37.17001122651305,175.88258344365806</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-37.170642897322054,175.8830370755393</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-37.171165241267644,175.88304693234656</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-37.17178059200704,175.88322225537001</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-37.17250154592977,175.88310967439563</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-37.173214626534396,175.8832705216086</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-37.17391738757316,175.8833848074826</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-37.17464855183785,175.88337720437508</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-37.175331493729786,175.88364699546503</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>-37.176023269557724,175.88391245963066</t>
+        </is>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>-37.176728608104284,175.88402225483992</t>
+        </is>
+      </c>
+      <c r="N663" t="inlineStr">
+        <is>
+          <t>-37.17741017798283,175.8842666210775</t>
+        </is>
+      </c>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-37.16937804338988,175.88212789211073</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-37.17004748967228,175.8824934790701</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-37.170697647069794,175.88292167002402</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-37.1711406865218,175.8834696529073</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-37.17176534234911,175.88313302478176</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-37.172498918450835,175.88304511440325</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-37.17322842582303,175.88309866280795</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-37.173956102634,175.8831894207031</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>-37.174654174639386,175.88334229906985</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>-37.17534055034481,175.88357179062942</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>-37.176037084812634,175.88379774065612</t>
+        </is>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>-37.17674309735854,175.8839402606039</t>
+        </is>
+      </c>
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>-37.17744158898536,175.88413287236918</t>
+        </is>
+      </c>
+      <c r="O664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-37.16936531380786,175.88216568658606</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-37.17003049259064,175.88253564684064</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-37.17066887131373,175.88298232571265</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-37.17114113211567,175.8834619820498</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-37.17176647729724,175.88313966570848</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-37.1724994783262,175.8830588710717</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>-37.173227414689556,175.88311125575152</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>-37.17394775967065,175.8832315260394</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>-37.174653789516306,175.88334468984436</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>-37.17533412538055,175.88362514265606</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>-37.17603082060001,175.88384975748053</t>
+        </is>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>-37.176740514157785,175.8839548788818</t>
+        </is>
+      </c>
+      <c r="N665" t="inlineStr">
+        <is>
+          <t>-37.177446961905325,175.88410999428862</t>
+        </is>
+      </c>
+      <c r="O665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-37.169372010524455,175.88214580385826</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-37.17005800395044,175.8824673943488</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-37.170627992695366,175.88306849253118</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-37.1717791247321,175.88321366985974</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-37.17249741876122,175.8830082658023</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>-37.17322560623608,175.88313377870284</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-37.17393384370308,175.88330175707247</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>-37.174668281961125,175.88325472314133</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>-37.175341922013516,175.88356040045267</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>-37.17602758571964,175.88387661923184</t>
+        </is>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>-37.17672441281387,175.8840459957918</t>
+        </is>
+      </c>
+      <c r="N666" t="inlineStr">
+        <is>
+          <t>-37.17742830512735,175.88418943540637</t>
+        </is>
+      </c>
+      <c r="O666" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O666"/>
+  <dimension ref="A1:O668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30876,6 +30876,108 @@
         </is>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>335.8033333333333</v>
+      </c>
+      <c r="C667" t="n">
+        <v>343.785</v>
+      </c>
+      <c r="D667" t="n">
+        <v>341.425</v>
+      </c>
+      <c r="E667" t="n">
+        <v>344.4566666666667</v>
+      </c>
+      <c r="F667" t="n">
+        <v>343.1933333333333</v>
+      </c>
+      <c r="G667" t="n">
+        <v>345.862380952381</v>
+      </c>
+      <c r="H667" t="n">
+        <v>350.6844444444445</v>
+      </c>
+      <c r="I667" t="n">
+        <v>344.2223809523809</v>
+      </c>
+      <c r="J667" t="n">
+        <v>340.1066666666667</v>
+      </c>
+      <c r="K667" t="n">
+        <v>354.4133333333333</v>
+      </c>
+      <c r="L667" t="n">
+        <v>364.9033333333333</v>
+      </c>
+      <c r="M667" t="n">
+        <v>370.96</v>
+      </c>
+      <c r="N667" t="n">
+        <v>373.6570588235294</v>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>341.3166666666667</v>
+      </c>
+      <c r="C668" t="n">
+        <v>346.005</v>
+      </c>
+      <c r="D668" t="n">
+        <v>335.705</v>
+      </c>
+      <c r="E668" t="n">
+        <v>333.2733333333333</v>
+      </c>
+      <c r="F668" t="n">
+        <v>345.2766666666667</v>
+      </c>
+      <c r="G668" t="n">
+        <v>346.1461904761905</v>
+      </c>
+      <c r="H668" t="n">
+        <v>347.1955555555556</v>
+      </c>
+      <c r="I668" t="n">
+        <v>348.4061904761905</v>
+      </c>
+      <c r="J668" t="n">
+        <v>341.9633333333333</v>
+      </c>
+      <c r="K668" t="n">
+        <v>356.5266666666667</v>
+      </c>
+      <c r="L668" t="n">
+        <v>368.8366666666667</v>
+      </c>
+      <c r="M668" t="n">
+        <v>370.13</v>
+      </c>
+      <c r="N668" t="n">
+        <v>369.1382352941176</v>
+      </c>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30887,7 +30989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37685,6 +37787,36 @@
       </c>
       <c r="B679" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -37858,28 +37990,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.884685225604923</v>
+        <v>0.8792709169907367</v>
       </c>
       <c r="J2" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K2" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2524005981180841</v>
+        <v>0.2511244156197648</v>
       </c>
       <c r="M2" t="n">
-        <v>9.32782258417039</v>
+        <v>9.321259959381049</v>
       </c>
       <c r="N2" t="n">
-        <v>129.5088815858935</v>
+        <v>129.2820070311912</v>
       </c>
       <c r="O2" t="n">
-        <v>11.38019690453085</v>
+        <v>11.37022458138762</v>
       </c>
       <c r="P2" t="n">
-        <v>323.3478333692595</v>
+        <v>323.40257679934</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37936,28 +38068,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6511766551786314</v>
+        <v>0.6495301119492746</v>
       </c>
       <c r="J3" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K3" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1506483309724596</v>
+        <v>0.1509186493071456</v>
       </c>
       <c r="M3" t="n">
-        <v>9.351026828145622</v>
+        <v>9.32507619512589</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8345136789681</v>
+        <v>132.3684175523767</v>
       </c>
       <c r="O3" t="n">
-        <v>11.5253856195343</v>
+        <v>11.50514743722899</v>
       </c>
       <c r="P3" t="n">
-        <v>330.3247668648171</v>
+        <v>330.3415544105251</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38014,28 +38146,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4402776123528823</v>
+        <v>0.4354591790677882</v>
       </c>
       <c r="J4" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K4" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07784099196250349</v>
+        <v>0.07667572187763283</v>
       </c>
       <c r="M4" t="n">
-        <v>9.014664295946044</v>
+        <v>9.007735404707013</v>
       </c>
       <c r="N4" t="n">
-        <v>128.146352129205</v>
+        <v>127.8763230028182</v>
       </c>
       <c r="O4" t="n">
-        <v>11.32017456266488</v>
+        <v>11.30824137533411</v>
       </c>
       <c r="P4" t="n">
-        <v>334.0489269935553</v>
+        <v>334.0981529431069</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38092,28 +38224,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.721720295917439</v>
+        <v>-1.715950513783786</v>
       </c>
       <c r="J5" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08935582546181431</v>
+        <v>0.08948762025880042</v>
       </c>
       <c r="M5" t="n">
-        <v>26.94390611285051</v>
+        <v>26.84195445441625</v>
       </c>
       <c r="N5" t="n">
-        <v>1626.114315692652</v>
+        <v>1618.728593937681</v>
       </c>
       <c r="O5" t="n">
-        <v>40.32510775797942</v>
+        <v>40.23342632609955</v>
       </c>
       <c r="P5" t="n">
-        <v>376.9643960026332</v>
+        <v>376.9027280111516</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38170,28 +38302,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5862386353107532</v>
+        <v>0.5759748782576998</v>
       </c>
       <c r="J6" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K6" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1432968289065628</v>
+        <v>0.1389995920903148</v>
       </c>
       <c r="M6" t="n">
-        <v>8.459925833524791</v>
+        <v>8.486994628826301</v>
       </c>
       <c r="N6" t="n">
-        <v>114.5287206262551</v>
+        <v>114.9368483078786</v>
       </c>
       <c r="O6" t="n">
-        <v>10.70180922210142</v>
+        <v>10.72086042759062</v>
       </c>
       <c r="P6" t="n">
-        <v>344.0505304885092</v>
+        <v>344.1557035472164</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38248,28 +38380,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6123729508090213</v>
+        <v>0.6076729699210748</v>
       </c>
       <c r="J7" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K7" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1661881223851078</v>
+        <v>0.1647954270420876</v>
       </c>
       <c r="M7" t="n">
-        <v>7.871642862731524</v>
+        <v>7.865833468937861</v>
       </c>
       <c r="N7" t="n">
-        <v>104.021593215014</v>
+        <v>103.8170149189399</v>
       </c>
       <c r="O7" t="n">
-        <v>10.19909766670631</v>
+        <v>10.18906349567711</v>
       </c>
       <c r="P7" t="n">
-        <v>337.0307926007991</v>
+        <v>337.0793325155324</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38326,28 +38458,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8635081101626877</v>
+        <v>0.8542567072032239</v>
       </c>
       <c r="J8" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K8" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1950346488868236</v>
+        <v>0.1921084285091177</v>
       </c>
       <c r="M8" t="n">
-        <v>10.40903595841331</v>
+        <v>10.42021155771364</v>
       </c>
       <c r="N8" t="n">
-        <v>171.6409787001301</v>
+        <v>171.7307258890712</v>
       </c>
       <c r="O8" t="n">
-        <v>13.10118233977873</v>
+        <v>13.10460704825105</v>
       </c>
       <c r="P8" t="n">
-        <v>340.4710149654546</v>
+        <v>340.5658339822195</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38404,28 +38536,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.667316532411672</v>
+        <v>0.6601435006987398</v>
       </c>
       <c r="J9" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K9" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1175376812500674</v>
+        <v>0.1158392389552003</v>
       </c>
       <c r="M9" t="n">
-        <v>10.83968613367009</v>
+        <v>10.8462491778564</v>
       </c>
       <c r="N9" t="n">
-        <v>185.5549981675968</v>
+        <v>185.271108900104</v>
       </c>
       <c r="O9" t="n">
-        <v>13.62185736849409</v>
+        <v>13.61143302154861</v>
       </c>
       <c r="P9" t="n">
-        <v>339.2536921851089</v>
+        <v>339.3270925006125</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38482,28 +38614,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5932122566785416</v>
+        <v>0.5851620098274357</v>
       </c>
       <c r="J10" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K10" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1044933403047387</v>
+        <v>0.1023328531559849</v>
       </c>
       <c r="M10" t="n">
-        <v>10.46405376800219</v>
+        <v>10.47147779501146</v>
       </c>
       <c r="N10" t="n">
-        <v>171.0191354191759</v>
+        <v>170.9065176529292</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07742847119325</v>
+        <v>13.07312195510044</v>
       </c>
       <c r="P10" t="n">
-        <v>337.4943237128806</v>
+        <v>337.5759969854158</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38560,28 +38692,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5140714067552803</v>
+        <v>0.5125346874044987</v>
       </c>
       <c r="J11" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K11" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1487816288934271</v>
+        <v>0.1488881411347787</v>
       </c>
       <c r="M11" t="n">
-        <v>7.242191658549776</v>
+        <v>7.22409606631639</v>
       </c>
       <c r="N11" t="n">
-        <v>84.84855861701725</v>
+        <v>84.55708282462453</v>
       </c>
       <c r="O11" t="n">
-        <v>9.211327733666696</v>
+        <v>9.195492527571567</v>
       </c>
       <c r="P11" t="n">
-        <v>344.3575815263118</v>
+        <v>344.3732810545097</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38638,28 +38770,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.762925492557241</v>
+        <v>0.7627930350079472</v>
       </c>
       <c r="J12" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K12" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1531637835584552</v>
+        <v>0.1540512349581414</v>
       </c>
       <c r="M12" t="n">
-        <v>10.50816004986403</v>
+        <v>10.47606775327221</v>
       </c>
       <c r="N12" t="n">
-        <v>182.2795600693676</v>
+        <v>181.6075924003297</v>
       </c>
       <c r="O12" t="n">
-        <v>13.50109477299406</v>
+        <v>13.47618612220571</v>
       </c>
       <c r="P12" t="n">
-        <v>347.2204460370617</v>
+        <v>347.2217804932569</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38716,28 +38848,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5224455543515684</v>
+        <v>0.5223449139733554</v>
       </c>
       <c r="J13" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K13" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1111852983953466</v>
+        <v>0.1118753970176104</v>
       </c>
       <c r="M13" t="n">
-        <v>8.252905615448697</v>
+        <v>8.222796315006496</v>
       </c>
       <c r="N13" t="n">
-        <v>124.0001881450543</v>
+        <v>123.5240228912027</v>
       </c>
       <c r="O13" t="n">
-        <v>11.13553717361916</v>
+        <v>11.11413617386447</v>
       </c>
       <c r="P13" t="n">
-        <v>357.0993930614749</v>
+        <v>357.1004136446335</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38794,28 +38926,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4202235095789391</v>
+        <v>0.4237640127144834</v>
       </c>
       <c r="J14" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K14" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05953694568170032</v>
+        <v>0.06085727083435277</v>
       </c>
       <c r="M14" t="n">
-        <v>9.868109011854925</v>
+        <v>9.846906589594605</v>
       </c>
       <c r="N14" t="n">
-        <v>157.0702784650847</v>
+        <v>156.5958232150811</v>
       </c>
       <c r="O14" t="n">
-        <v>12.53276818843645</v>
+        <v>12.51382528306517</v>
       </c>
       <c r="P14" t="n">
-        <v>355.3662716804411</v>
+        <v>355.3303143437275</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38853,7 +38985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O666"/>
+  <dimension ref="A1:O668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83039,6 +83171,160 @@
         </is>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-37.16935076736376,175.882208875316</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-37.16999362163745,175.8826271191716</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-37.17063570911324,175.8830522273413</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-37.171140410470734,175.88347440509702</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-37.17176610734182,175.88313750098652</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-37.172500583258355,175.88308602041923</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-37.173229314060706,175.88308760042932</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-37.173951666731796,175.88321180786141</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>-37.17464995605793,175.8833684872446</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>-37.17533202988985,175.88364254328</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>-37.176027719761755,175.88387550617588</t>
+        </is>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>-37.17672248997088,175.88405687706043</t>
+        </is>
+      </c>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>-37.17739791314915,175.88431884479476</t>
+        </is>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-37.16933150407509,175.88226606837108</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-37.1699846267354,175.8826494343855</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-37.170661981663095,175.88299684821686</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-37.17114770293745,175.88334886495124</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-37.171770026359106,175.8831604323645</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-37.1725007130962,175.8830892106817</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-37.17323245135998,175.88304852745839</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-37.173942609355066,175.8832575186526</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>-37.174646655843475,175.8833889743397</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>-37.17532919717563,175.8836660656568</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>-37.17602244743044,175.88391928637273</t>
+        </is>
+      </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>-37.17672410205143,175.88404775438073</t>
+        </is>
+      </c>
+      <c r="N668" t="inlineStr">
+        <is>
+          <t>-37.17740937524866,175.88427003912668</t>
+        </is>
+      </c>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O668"/>
+  <dimension ref="A1:O674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30978,6 +30978,298 @@
         </is>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>334.27</v>
+      </c>
+      <c r="C669" t="n">
+        <v>333.66</v>
+      </c>
+      <c r="D669" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="E669" t="n">
+        <v>333.65</v>
+      </c>
+      <c r="F669" t="n">
+        <v>339.02</v>
+      </c>
+      <c r="G669" t="n">
+        <v>345.48</v>
+      </c>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
+      <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>330.1166666666666</v>
+      </c>
+      <c r="C670" t="n">
+        <v>329.205</v>
+      </c>
+      <c r="D670" t="n">
+        <v>330.085</v>
+      </c>
+      <c r="E670" t="n">
+        <v>307.3733333333333</v>
+      </c>
+      <c r="F670" t="n">
+        <v>342.2966666666666</v>
+      </c>
+      <c r="G670" t="n">
+        <v>344.8104761904762</v>
+      </c>
+      <c r="H670" t="n">
+        <v>343.3988888888889</v>
+      </c>
+      <c r="I670" t="n">
+        <v>328.2104761904762</v>
+      </c>
+      <c r="J670" t="n">
+        <v>331.4633333333333</v>
+      </c>
+      <c r="K670" t="n">
+        <v>346.6666666666666</v>
+      </c>
+      <c r="L670" t="n">
+        <v>351.2366666666666</v>
+      </c>
+      <c r="M670" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="N670" t="n">
+        <v>357.6747058823529</v>
+      </c>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>334.91</v>
+      </c>
+      <c r="C671" t="n">
+        <v>337.145</v>
+      </c>
+      <c r="D671" t="n">
+        <v>341.755</v>
+      </c>
+      <c r="E671" t="n">
+        <v>335.89</v>
+      </c>
+      <c r="F671" t="n">
+        <v>347.15</v>
+      </c>
+      <c r="G671" t="n">
+        <v>345.7</v>
+      </c>
+      <c r="H671" t="n">
+        <v>345.7933333333333</v>
+      </c>
+      <c r="I671" t="n">
+        <v>336.4</v>
+      </c>
+      <c r="J671" t="n">
+        <v>342.02</v>
+      </c>
+      <c r="K671" t="n">
+        <v>350.64</v>
+      </c>
+      <c r="L671" t="n">
+        <v>350.29</v>
+      </c>
+      <c r="M671" t="n">
+        <v>363.46</v>
+      </c>
+      <c r="N671" t="n">
+        <v>356.3005882352941</v>
+      </c>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>332.9366666666667</v>
+      </c>
+      <c r="C672" t="n">
+        <v>332.18</v>
+      </c>
+      <c r="D672" t="n">
+        <v>333.26</v>
+      </c>
+      <c r="E672" t="n">
+        <v>348.5233333333333</v>
+      </c>
+      <c r="F672" t="n">
+        <v>341.5466666666666</v>
+      </c>
+      <c r="G672" t="n">
+        <v>345.4733333333333</v>
+      </c>
+      <c r="H672" t="n">
+        <v>344.1822222222222</v>
+      </c>
+      <c r="I672" t="n">
+        <v>335.2633333333333</v>
+      </c>
+      <c r="J672" t="n">
+        <v>343.6033333333333</v>
+      </c>
+      <c r="K672" t="n">
+        <v>351.1866666666667</v>
+      </c>
+      <c r="L672" t="n">
+        <v>350.9466666666667</v>
+      </c>
+      <c r="M672" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="N672" t="n">
+        <v>352.6682352941176</v>
+      </c>
+      <c r="O672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>334.9533333333334</v>
+      </c>
+      <c r="C673" t="n">
+        <v>332.99</v>
+      </c>
+      <c r="D673" t="n">
+        <v>336</v>
+      </c>
+      <c r="E673" t="n">
+        <v>296.9466666666667</v>
+      </c>
+      <c r="F673" t="n">
+        <v>350.3133333333333</v>
+      </c>
+      <c r="G673" t="n">
+        <v>343.2166666666667</v>
+      </c>
+      <c r="H673" t="n">
+        <v>342.9577777777778</v>
+      </c>
+      <c r="I673" t="n">
+        <v>334.5666666666667</v>
+      </c>
+      <c r="J673" t="n">
+        <v>335.9566666666667</v>
+      </c>
+      <c r="K673" t="n">
+        <v>348.6233333333333</v>
+      </c>
+      <c r="L673" t="n">
+        <v>339.8033333333333</v>
+      </c>
+      <c r="M673" t="n">
+        <v>360.39</v>
+      </c>
+      <c r="N673" t="n">
+        <v>362.8317647058824</v>
+      </c>
+      <c r="O673" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>335.52</v>
+      </c>
+      <c r="C674" t="n">
+        <v>339.165</v>
+      </c>
+      <c r="D674" t="n">
+        <v>337.505</v>
+      </c>
+      <c r="E674" t="n">
+        <v>296.56</v>
+      </c>
+      <c r="F674" t="n">
+        <v>347.75</v>
+      </c>
+      <c r="G674" t="n">
+        <v>347.4471428571428</v>
+      </c>
+      <c r="H674" t="n">
+        <v>341.4666666666667</v>
+      </c>
+      <c r="I674" t="n">
+        <v>334.4671428571428</v>
+      </c>
+      <c r="J674" t="n">
+        <v>338.15</v>
+      </c>
+      <c r="K674" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="L674" t="n">
+        <v>341.07</v>
+      </c>
+      <c r="M674" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="N674" t="n">
+        <v>364.5164705882353</v>
+      </c>
+      <c r="O674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30989,7 +31281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37817,6 +38109,66 @@
       </c>
       <c r="B682" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -37990,28 +38342,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8792709169907367</v>
+        <v>0.8538762593259045</v>
       </c>
       <c r="J2" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K2" t="n">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2511244156197648</v>
+        <v>0.241856456741755</v>
       </c>
       <c r="M2" t="n">
-        <v>9.321259959381049</v>
+        <v>9.348248073513595</v>
       </c>
       <c r="N2" t="n">
-        <v>129.2820070311912</v>
+        <v>129.5656746988218</v>
       </c>
       <c r="O2" t="n">
-        <v>11.37022458138762</v>
+        <v>11.38269189158794</v>
       </c>
       <c r="P2" t="n">
-        <v>323.40257679934</v>
+        <v>323.6600268026349</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38068,28 +38420,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6495301119492746</v>
+        <v>0.6227011176164581</v>
       </c>
       <c r="J3" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K3" t="n">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1509186493071456</v>
+        <v>0.1412381448937291</v>
       </c>
       <c r="M3" t="n">
-        <v>9.32507619512589</v>
+        <v>9.360960545894059</v>
       </c>
       <c r="N3" t="n">
-        <v>132.3684175523767</v>
+        <v>132.8861105017666</v>
       </c>
       <c r="O3" t="n">
-        <v>11.50514743722899</v>
+        <v>11.52762380119019</v>
       </c>
       <c r="P3" t="n">
-        <v>330.3415544105251</v>
+        <v>330.6158325654134</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38146,28 +38498,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4354591790677882</v>
+        <v>0.412733383728103</v>
       </c>
       <c r="J4" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K4" t="n">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07667572187763283</v>
+        <v>0.06999112178799349</v>
       </c>
       <c r="M4" t="n">
-        <v>9.007735404707013</v>
+        <v>9.032777745912393</v>
       </c>
       <c r="N4" t="n">
-        <v>127.8763230028182</v>
+        <v>128.0758645209915</v>
       </c>
       <c r="O4" t="n">
-        <v>11.30824137533411</v>
+        <v>11.31706077217011</v>
       </c>
       <c r="P4" t="n">
-        <v>334.0981529431069</v>
+        <v>334.3307908831359</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38224,28 +38576,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.715950513783786</v>
+        <v>-1.746981020463697</v>
       </c>
       <c r="J5" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K5" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08948762025880042</v>
+        <v>0.09415014906372765</v>
       </c>
       <c r="M5" t="n">
-        <v>26.84195445441625</v>
+        <v>26.76799559238017</v>
       </c>
       <c r="N5" t="n">
-        <v>1618.728593937681</v>
+        <v>1603.838211135128</v>
       </c>
       <c r="O5" t="n">
-        <v>40.23342632609955</v>
+        <v>40.04794890047589</v>
       </c>
       <c r="P5" t="n">
-        <v>376.9027280111516</v>
+        <v>377.2357647558135</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38302,28 +38654,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5759748782576998</v>
+        <v>0.5471593830373646</v>
       </c>
       <c r="J6" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K6" t="n">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1389995920903148</v>
+        <v>0.1271810683768038</v>
       </c>
       <c r="M6" t="n">
-        <v>8.486994628826301</v>
+        <v>8.555640560417318</v>
       </c>
       <c r="N6" t="n">
-        <v>114.9368483078786</v>
+        <v>116.0721009974858</v>
       </c>
       <c r="O6" t="n">
-        <v>10.72086042759062</v>
+        <v>10.77367629908593</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1557035472164</v>
+        <v>344.4516876547677</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38380,28 +38732,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6076729699210748</v>
+        <v>0.5927403577967021</v>
       </c>
       <c r="J7" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K7" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1647954270420876</v>
+        <v>0.160020783393747</v>
       </c>
       <c r="M7" t="n">
-        <v>7.865833468937861</v>
+        <v>7.853382148927994</v>
       </c>
       <c r="N7" t="n">
-        <v>103.8170149189399</v>
+        <v>103.3105918097704</v>
       </c>
       <c r="O7" t="n">
-        <v>10.18906349567711</v>
+        <v>10.16418180719778</v>
       </c>
       <c r="P7" t="n">
-        <v>337.0793325155324</v>
+        <v>337.2339600318804</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38458,28 +38810,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8542567072032239</v>
+        <v>0.8230266800795482</v>
       </c>
       <c r="J8" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K8" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1921084285091177</v>
+        <v>0.1805561336340062</v>
       </c>
       <c r="M8" t="n">
-        <v>10.42021155771364</v>
+        <v>10.49153094492116</v>
       </c>
       <c r="N8" t="n">
-        <v>171.7307258890712</v>
+        <v>173.4333058531027</v>
       </c>
       <c r="O8" t="n">
-        <v>13.10460704825105</v>
+        <v>13.16940795378071</v>
       </c>
       <c r="P8" t="n">
-        <v>340.5658339822195</v>
+        <v>340.8868784184716</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38536,28 +38888,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6601435006987398</v>
+        <v>0.6213529509774147</v>
       </c>
       <c r="J9" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K9" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1158392389552003</v>
+        <v>0.1033219160958656</v>
       </c>
       <c r="M9" t="n">
-        <v>10.8462491778564</v>
+        <v>10.99789618537401</v>
       </c>
       <c r="N9" t="n">
-        <v>185.271108900104</v>
+        <v>188.2801220508711</v>
       </c>
       <c r="O9" t="n">
-        <v>13.61143302154861</v>
+        <v>13.72152039866104</v>
       </c>
       <c r="P9" t="n">
-        <v>339.3270925006125</v>
+        <v>339.725231828812</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38614,28 +38966,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5851620098274357</v>
+        <v>0.5609720504753059</v>
       </c>
       <c r="J10" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K10" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1023328531559849</v>
+        <v>0.09528606151800512</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47147779501146</v>
+        <v>10.51368952745143</v>
       </c>
       <c r="N10" t="n">
-        <v>170.9065176529292</v>
+        <v>171.4141995009296</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07312195510044</v>
+        <v>13.09252456560344</v>
       </c>
       <c r="P10" t="n">
-        <v>337.5759969854158</v>
+        <v>337.8221703351276</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38692,28 +39044,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5125346874044987</v>
+        <v>0.4992410001346279</v>
       </c>
       <c r="J11" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K11" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1488881411347787</v>
+        <v>0.1436204020352468</v>
       </c>
       <c r="M11" t="n">
-        <v>7.22409606631639</v>
+        <v>7.233029171060466</v>
       </c>
       <c r="N11" t="n">
-        <v>84.55708282462453</v>
+        <v>84.38141774106981</v>
       </c>
       <c r="O11" t="n">
-        <v>9.195492527571567</v>
+        <v>9.185935866370384</v>
       </c>
       <c r="P11" t="n">
-        <v>344.3732810545097</v>
+        <v>344.509530338023</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38770,28 +39122,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7627930350079472</v>
+        <v>0.7282371992704136</v>
       </c>
       <c r="J12" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K12" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1540512349581414</v>
+        <v>0.1418260688937565</v>
       </c>
       <c r="M12" t="n">
-        <v>10.47606775327221</v>
+        <v>10.59370477478127</v>
       </c>
       <c r="N12" t="n">
-        <v>181.6075924003297</v>
+        <v>183.9504077620363</v>
       </c>
       <c r="O12" t="n">
-        <v>13.47618612220571</v>
+        <v>13.56283184891844</v>
       </c>
       <c r="P12" t="n">
-        <v>347.2217804932569</v>
+        <v>347.5730886401778</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38848,28 +39200,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5223449139733554</v>
+        <v>0.5005084863060869</v>
       </c>
       <c r="J13" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K13" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1118753970176104</v>
+        <v>0.1041025434522892</v>
       </c>
       <c r="M13" t="n">
-        <v>8.222796315006496</v>
+        <v>8.267494800687142</v>
       </c>
       <c r="N13" t="n">
-        <v>123.5240228912027</v>
+        <v>124.0028562393343</v>
       </c>
       <c r="O13" t="n">
-        <v>11.11413617386447</v>
+        <v>11.1356569738536</v>
       </c>
       <c r="P13" t="n">
-        <v>357.1004136446335</v>
+        <v>357.3221548232169</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38926,28 +39278,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4237640127144834</v>
+        <v>0.4108962353116807</v>
       </c>
       <c r="J14" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K14" t="n">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06085727083435277</v>
+        <v>0.05816276591519021</v>
       </c>
       <c r="M14" t="n">
-        <v>9.846906589594605</v>
+        <v>9.835928322004097</v>
       </c>
       <c r="N14" t="n">
-        <v>156.5958232150811</v>
+        <v>155.832992730761</v>
       </c>
       <c r="O14" t="n">
-        <v>12.51382528306517</v>
+        <v>12.48330856507044</v>
       </c>
       <c r="P14" t="n">
-        <v>355.3303143437275</v>
+        <v>355.4613893419275</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38985,7 +39337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O668"/>
+  <dimension ref="A1:O674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83325,6 +83677,440 @@
         </is>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>-37.16935612474284,175.88219296914048</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>-37.17003464563337,175.88252534363272</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-37.17070311285254,175.8829101488264</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-37.171147457321496,175.8833530932786</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-37.171758256752724,175.88309156485636</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-37.17250040832571,175.88308172212936</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
+      <c r="N669" t="inlineStr"/>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-37.16937063624199,175.8821498841401</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-37.17005269616522,175.88248056235932</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-37.17068779487889,175.88294243722044</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-37.1711645913915,175.88305812058255</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-37.17176442059538,175.88312763132203</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-37.17250010202981,175.88307419610751</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-37.17323586540652,175.88300600759965</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-37.173986330161775,175.88303686746423</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-37.17466531948807,175.88327311372157</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>-37.175342413490654,175.8835563192817</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>-37.176046038755054,175.8837233884873</t>
+        </is>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>-37.17675214825863,175.88388904166666</t>
+        </is>
+      </c>
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>-37.177438452666316,175.884146226915</t>
+        </is>
+      </c>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-37.16935388861965,175.88219960824011</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>-37.17002052528465,175.88256037453482</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-37.17063419338847,175.88305542228957</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-37.171145996664244,175.883378238729</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-37.17177355033556,175.8831810522614</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-37.172500508971915,175.88308419511804</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-37.17323371227094,175.8830328236071</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-37.17396860107301,175.8831263433212</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-37.174646555118755,175.88338959961908</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>-37.175337087658384,175.88360054433076</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>-37.17604730767332,175.88371285155154</t>
+        </is>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>-37.17673705693892,175.88397444319182</t>
+        </is>
+      </c>
+      <c r="N671" t="inlineStr">
+        <is>
+          <t>-37.17744193812831,175.884131385707</t>
+        </is>
+      </c>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-37.1693607833317,175.88217913768156</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-37.17004064222037,175.8825104668036</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-37.17067321179279,175.8829731765336</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-37.17113775863188,175.88352005605094</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-37.17176300974734,175.8831193760268</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-37.17250040527582,175.8830816471903</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-37.17323516101711,175.88301478035405</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-37.173971061789516,175.88311392450373</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-37.174643740749914,175.88340707065905</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>-37.17533635490838,175.8836066289846</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>-37.176046427473075,175.88372016062323</t>
+        </is>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>-37.17675995609923,175.88384485707888</t>
+        </is>
+      </c>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>-37.1774511516161,175.8840921543389</t>
+        </is>
+      </c>
+      <c r="O672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-37.16935373721546,175.88220005776245</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-37.17003736030472,175.88251860885228</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-37.170660626698265,175.88299970430901</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-37.17117139004386,175.88294107440842</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-37.17177950095649,175.8832158712726</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-37.17249937288677,175.88305628032168</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>-37.17323626206238,175.88300106748113</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-37.17397256996998,175.88310631296997</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>-37.17465733264679,175.88332269471778</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>-37.17533979078837,175.88357809789318</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>-37.17606136400888,175.8835961289889</t>
+        </is>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>-37.17674301966832,175.88394070025137</t>
+        </is>
+      </c>
+      <c r="N673" t="inlineStr">
+        <is>
+          <t>-37.1774253717233,175.88420192590456</t>
+        </is>
+      </c>
+      <c r="O673" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-37.169351757314395,175.88220593613158</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>-37.17001234074517,175.88258067938435</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-37.1706537140801,175.88301427521833</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-37.17117164216559,175.88293673382083</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>-37.17177467901051,175.8831876564992</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-37.172501308257765,175.88310383450238</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>-37.1732376028976,175.88298436813793</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>-37.17397278542429,175.88310522560798</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>-37.17465343401805,175.8833468967131</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>-37.175335707049875,175.8836120087089</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>-37.176059666174,175.8836102277118</t>
+        </is>
+      </c>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>-37.176746204966165,175.88392267470422</t>
+        </is>
+      </c>
+      <c r="N674" t="inlineStr">
+        <is>
+          <t>-37.17742109844063,175.88422012162331</t>
+        </is>
+      </c>
+      <c r="O674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O674"/>
+  <dimension ref="A1:O677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31183,9 +31183,7 @@
       <c r="D673" t="n">
         <v>336</v>
       </c>
-      <c r="E673" t="n">
-        <v>296.9466666666667</v>
-      </c>
+      <c r="E673" t="inlineStr"/>
       <c r="F673" t="n">
         <v>350.3133333333333</v>
       </c>
@@ -31234,9 +31232,7 @@
       <c r="D674" t="n">
         <v>337.505</v>
       </c>
-      <c r="E674" t="n">
-        <v>296.56</v>
-      </c>
+      <c r="E674" t="inlineStr"/>
       <c r="F674" t="n">
         <v>347.75</v>
       </c>
@@ -31265,6 +31261,159 @@
         <v>364.5164705882353</v>
       </c>
       <c r="O674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>327.59</v>
+      </c>
+      <c r="C675" t="n">
+        <v>328.045</v>
+      </c>
+      <c r="D675" t="n">
+        <v>320.225</v>
+      </c>
+      <c r="E675" t="n">
+        <v>344.12</v>
+      </c>
+      <c r="F675" t="n">
+        <v>341.7</v>
+      </c>
+      <c r="G675" t="n">
+        <v>337.9714285714285</v>
+      </c>
+      <c r="H675" t="n">
+        <v>333.2166666666667</v>
+      </c>
+      <c r="I675" t="n">
+        <v>312.0214285714285</v>
+      </c>
+      <c r="J675" t="n">
+        <v>330.37</v>
+      </c>
+      <c r="K675" t="n">
+        <v>350.13</v>
+      </c>
+      <c r="L675" t="n">
+        <v>333.22</v>
+      </c>
+      <c r="M675" t="n">
+        <v>342.57</v>
+      </c>
+      <c r="N675" t="n">
+        <v>349.4276470588235</v>
+      </c>
+      <c r="O675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>361.5533333333333</v>
+      </c>
+      <c r="C676" t="n">
+        <v>352.78</v>
+      </c>
+      <c r="D676" t="n">
+        <v>347.74</v>
+      </c>
+      <c r="E676" t="n">
+        <v>367.4066666666667</v>
+      </c>
+      <c r="F676" t="n">
+        <v>354.5833333333333</v>
+      </c>
+      <c r="G676" t="n">
+        <v>355.0595238095238</v>
+      </c>
+      <c r="H676" t="n">
+        <v>352.8811111111111</v>
+      </c>
+      <c r="I676" t="n">
+        <v>335.6195238095238</v>
+      </c>
+      <c r="J676" t="n">
+        <v>349.7566666666667</v>
+      </c>
+      <c r="K676" t="n">
+        <v>358.0433333333333</v>
+      </c>
+      <c r="L676" t="n">
+        <v>361.1433333333333</v>
+      </c>
+      <c r="M676" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="N676" t="n">
+        <v>353.4670588235294</v>
+      </c>
+      <c r="O676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="C677" t="n">
+        <v>342.595</v>
+      </c>
+      <c r="D677" t="n">
+        <v>339.735</v>
+      </c>
+      <c r="E677" t="n">
+        <v>355.43</v>
+      </c>
+      <c r="F677" t="n">
+        <v>346.61</v>
+      </c>
+      <c r="G677" t="n">
+        <v>348.5685714285714</v>
+      </c>
+      <c r="H677" t="n">
+        <v>348.5033333333333</v>
+      </c>
+      <c r="I677" t="n">
+        <v>333.9985714285714</v>
+      </c>
+      <c r="J677" t="n">
+        <v>340.31</v>
+      </c>
+      <c r="K677" t="n">
+        <v>356.0700000000001</v>
+      </c>
+      <c r="L677" t="n">
+        <v>353.54</v>
+      </c>
+      <c r="M677" t="n">
+        <v>353.81</v>
+      </c>
+      <c r="N677" t="n">
+        <v>361.3558823529411</v>
+      </c>
+      <c r="O677" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -31281,7 +31430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38169,6 +38318,36 @@
       </c>
       <c r="B688" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -38342,28 +38521,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8538762593259045</v>
+        <v>0.8516899952941563</v>
       </c>
       <c r="J2" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K2" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L2" t="n">
-        <v>0.241856456741755</v>
+        <v>0.2413714066387529</v>
       </c>
       <c r="M2" t="n">
-        <v>9.348248073513595</v>
+        <v>9.365012330185175</v>
       </c>
       <c r="N2" t="n">
-        <v>129.5656746988218</v>
+        <v>129.9352871601103</v>
       </c>
       <c r="O2" t="n">
-        <v>11.38269189158794</v>
+        <v>11.39891605198101</v>
       </c>
       <c r="P2" t="n">
-        <v>323.6600268026349</v>
+        <v>323.682184422203</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38420,28 +38599,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6227011176164581</v>
+        <v>0.6169128583301793</v>
       </c>
       <c r="J3" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K3" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1412381448937291</v>
+        <v>0.139598936857932</v>
       </c>
       <c r="M3" t="n">
-        <v>9.360960545894059</v>
+        <v>9.36108918880052</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8861105017666</v>
+        <v>132.9000164041402</v>
       </c>
       <c r="O3" t="n">
-        <v>11.52762380119019</v>
+        <v>11.52822694104085</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6158325654134</v>
+        <v>330.675178029968</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38498,28 +38677,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.412733383728103</v>
+        <v>0.4034796996452056</v>
       </c>
       <c r="J4" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K4" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06999112178799349</v>
+        <v>0.06717327017382602</v>
       </c>
       <c r="M4" t="n">
-        <v>9.032777745912393</v>
+        <v>9.044031029778683</v>
       </c>
       <c r="N4" t="n">
-        <v>128.0758645209915</v>
+        <v>128.5656538856444</v>
       </c>
       <c r="O4" t="n">
-        <v>11.31706077217011</v>
+        <v>11.33867954770944</v>
       </c>
       <c r="P4" t="n">
-        <v>334.3307908831359</v>
+        <v>334.4258504266133</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38576,28 +38755,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.746981020463697</v>
+        <v>-1.687612847558144</v>
       </c>
       <c r="J5" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09415014906372765</v>
+        <v>0.08882274896891906</v>
       </c>
       <c r="M5" t="n">
-        <v>26.76799559238017</v>
+        <v>26.64454657273872</v>
       </c>
       <c r="N5" t="n">
-        <v>1603.838211135128</v>
+        <v>1598.792867381536</v>
       </c>
       <c r="O5" t="n">
-        <v>40.04794890047589</v>
+        <v>39.98490799516158</v>
       </c>
       <c r="P5" t="n">
-        <v>377.2357647558135</v>
+        <v>376.5970816425904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38654,28 +38833,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5471593830373646</v>
+        <v>0.5361669452592469</v>
       </c>
       <c r="J6" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K6" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1271810683768038</v>
+        <v>0.1230990343377443</v>
       </c>
       <c r="M6" t="n">
-        <v>8.555640560417318</v>
+        <v>8.57033367184469</v>
       </c>
       <c r="N6" t="n">
-        <v>116.0721009974858</v>
+        <v>116.2565111350754</v>
       </c>
       <c r="O6" t="n">
-        <v>10.77367629908593</v>
+        <v>10.78223126885504</v>
       </c>
       <c r="P6" t="n">
-        <v>344.4516876547677</v>
+        <v>344.5651243112064</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38732,28 +38911,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5927403577967021</v>
+        <v>0.5873245411598421</v>
       </c>
       <c r="J7" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K7" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L7" t="n">
-        <v>0.160020783393747</v>
+        <v>0.1583695716466744</v>
       </c>
       <c r="M7" t="n">
-        <v>7.853382148927994</v>
+        <v>7.846176074945543</v>
       </c>
       <c r="N7" t="n">
-        <v>103.3105918097704</v>
+        <v>103.1831342694886</v>
       </c>
       <c r="O7" t="n">
-        <v>10.16418180719778</v>
+        <v>10.15790993607881</v>
       </c>
       <c r="P7" t="n">
-        <v>337.2339600318804</v>
+        <v>337.2902249631707</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38810,28 +38989,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8230266800795482</v>
+        <v>0.8061170006159581</v>
       </c>
       <c r="J8" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K8" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1805561336340062</v>
+        <v>0.1743096848113178</v>
       </c>
       <c r="M8" t="n">
-        <v>10.49153094492116</v>
+        <v>10.52477306154639</v>
       </c>
       <c r="N8" t="n">
-        <v>173.4333058531027</v>
+        <v>174.4917615123511</v>
       </c>
       <c r="O8" t="n">
-        <v>13.16940795378071</v>
+        <v>13.209532978586</v>
       </c>
       <c r="P8" t="n">
-        <v>340.8868784184716</v>
+        <v>341.0613374072696</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38888,28 +39067,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6213529509774147</v>
+        <v>0.5922002415152136</v>
       </c>
       <c r="J9" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K9" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1033219160958656</v>
+        <v>0.09336985041576373</v>
       </c>
       <c r="M9" t="n">
-        <v>10.99789618537401</v>
+        <v>11.13164919514674</v>
       </c>
       <c r="N9" t="n">
-        <v>188.2801220508711</v>
+        <v>192.3525217659469</v>
       </c>
       <c r="O9" t="n">
-        <v>13.72152039866104</v>
+        <v>13.86912116054752</v>
       </c>
       <c r="P9" t="n">
-        <v>339.725231828812</v>
+        <v>340.0255662850515</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38966,28 +39145,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5609720504753059</v>
+        <v>0.548797274049014</v>
       </c>
       <c r="J10" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K10" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09528606151800512</v>
+        <v>0.0918641097415045</v>
       </c>
       <c r="M10" t="n">
-        <v>10.51368952745143</v>
+        <v>10.52564584125455</v>
       </c>
       <c r="N10" t="n">
-        <v>171.4141995009296</v>
+        <v>171.6399402912901</v>
       </c>
       <c r="O10" t="n">
-        <v>13.09252456560344</v>
+        <v>13.10114270937044</v>
       </c>
       <c r="P10" t="n">
-        <v>337.8221703351276</v>
+        <v>337.946545802661</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39044,28 +39223,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4992410001346279</v>
+        <v>0.4964520009300142</v>
       </c>
       <c r="J11" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K11" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1436204020352468</v>
+        <v>0.143365612384177</v>
       </c>
       <c r="M11" t="n">
-        <v>7.233029171060466</v>
+        <v>7.21131247228274</v>
       </c>
       <c r="N11" t="n">
-        <v>84.38141774106981</v>
+        <v>84.02374676985575</v>
       </c>
       <c r="O11" t="n">
-        <v>9.185935866370384</v>
+        <v>9.166446790870264</v>
       </c>
       <c r="P11" t="n">
-        <v>344.509530338023</v>
+        <v>344.5381977359007</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39122,28 +39301,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7282371992704136</v>
+        <v>0.7108453931202349</v>
       </c>
       <c r="J12" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K12" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1418260688937565</v>
+        <v>0.1357474249007815</v>
       </c>
       <c r="M12" t="n">
-        <v>10.59370477478127</v>
+        <v>10.64295415999121</v>
       </c>
       <c r="N12" t="n">
-        <v>183.9504077620363</v>
+        <v>185.3400775542179</v>
       </c>
       <c r="O12" t="n">
-        <v>13.56283184891844</v>
+        <v>13.61396626829294</v>
       </c>
       <c r="P12" t="n">
-        <v>347.5730886401778</v>
+        <v>347.7504800647994</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39200,28 +39379,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5005084863060869</v>
+        <v>0.4854605369582898</v>
       </c>
       <c r="J13" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K13" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1041025434522892</v>
+        <v>0.09809077766701124</v>
       </c>
       <c r="M13" t="n">
-        <v>8.267494800687142</v>
+        <v>8.307857934902476</v>
       </c>
       <c r="N13" t="n">
-        <v>124.0028562393343</v>
+        <v>125.2675191474636</v>
       </c>
       <c r="O13" t="n">
-        <v>11.1356569738536</v>
+        <v>11.19229731321785</v>
       </c>
       <c r="P13" t="n">
-        <v>357.3221548232169</v>
+        <v>357.4755551831001</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39278,28 +39457,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4108962353116807</v>
+        <v>0.3993294567075421</v>
       </c>
       <c r="J14" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K14" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05816276591519021</v>
+        <v>0.05538174829040987</v>
       </c>
       <c r="M14" t="n">
-        <v>9.835928322004097</v>
+        <v>9.853665668974413</v>
       </c>
       <c r="N14" t="n">
-        <v>155.832992730761</v>
+        <v>155.820412367613</v>
       </c>
       <c r="O14" t="n">
-        <v>12.48330856507044</v>
+        <v>12.48280466752617</v>
       </c>
       <c r="P14" t="n">
-        <v>355.4613893419275</v>
+        <v>355.5796684605735</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39337,7 +39516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O674"/>
+  <dimension ref="A1:O677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83978,11 +84157,7 @@
           <t>-37.170660626698265,175.88299970430901</t>
         </is>
       </c>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>-37.17117139004386,175.88294107440842</t>
-        </is>
-      </c>
+      <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr">
         <is>
           <t>-37.17177950095649,175.8832158712726</t>
@@ -84055,11 +84230,7 @@
           <t>-37.1706537140801,175.88301427521833</t>
         </is>
       </c>
-      <c r="E674" t="inlineStr">
-        <is>
-          <t>-37.17117164216559,175.88293673382083</t>
-        </is>
-      </c>
+      <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr">
         <is>
           <t>-37.17177467901051,175.8831876564992</t>
@@ -84106,6 +84277,237 @@
         </is>
       </c>
       <c r="O674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-37.169379464257425,175.8821236735134</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>-37.17005739618884,175.88246890213637</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>-37.17073308277707,175.8828469758427</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-37.171140630007436,175.88347062579652</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>-37.17176329818743,175.88312106377603</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>-37.17249697325271,175.88299731934848</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>-37.17324502141096,175.88289197421747</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-37.17402137682381,175.88285999148783</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>-37.17466726287072,175.8832610495011</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>-37.17533777126025,175.88359486779382</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>-37.1760701882557,175.88352285271972</t>
+        </is>
+      </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>-37.17677763050471,175.88374483720347</t>
+        </is>
+      </c>
+      <c r="N675" t="inlineStr">
+        <is>
+          <t>-37.17745937137943,175.8840571542319</t>
+        </is>
+      </c>
+      <c r="O675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>-37.16926079802864,175.8824759949755</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>-37.16995717605235,175.8827175359616</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>-37.1706067036387,175.8831133670106</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>-37.17112544474128,175.8837320335791</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>-37.171787533337564,175.88326287144184</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>-37.172504790744384,175.88318940419603</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>-37.17322733875458,175.88311220146662</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>-37.17397029068956,175.88311781611483</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>-37.17463280319988,175.8834749686236</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>-37.1753271642312,175.88368294685657</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>-37.17603275973814,175.8838336552692</t>
+        </is>
+      </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>-37.17672318918663,175.88405292023555</t>
+        </is>
+      </c>
+      <c r="N676" t="inlineStr">
+        <is>
+          <t>-37.177449125395896,175.88410078206417</t>
+        </is>
+      </c>
+      <c r="O676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-37.16932824305624,175.88227575038465</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>-37.16999844322746,175.88261515741047</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>-37.17064347146005,175.88303586533138</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-37.17113325481306,175.883597587825</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>-37.17177253452777,175.88317510844752</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>-37.17250182128907,175.8831164403215</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>-37.17323127537383,175.88306317360113</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>-37.17397379981193,175.88310010616198</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>-37.17464959463426,175.88337073089426</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>-37.1753298092925,175.8836609827459</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>-37.176042951347966,175.88374902588916</t>
+        </is>
+      </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>-37.176755799688586,175.88386837822887</t>
+        </is>
+      </c>
+      <c r="N677" t="inlineStr">
+        <is>
+          <t>-37.177429115319605,175.88418598558903</t>
+        </is>
+      </c>
+      <c r="O677" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O677"/>
+  <dimension ref="A1:O678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31419,6 +31419,57 @@
         </is>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>350.9866666666667</v>
+      </c>
+      <c r="C678" t="n">
+        <v>351.85</v>
+      </c>
+      <c r="D678" t="n">
+        <v>347.92</v>
+      </c>
+      <c r="E678" t="n">
+        <v>359.7033333333333</v>
+      </c>
+      <c r="F678" t="n">
+        <v>348.4566666666666</v>
+      </c>
+      <c r="G678" t="n">
+        <v>351.7690476190476</v>
+      </c>
+      <c r="H678" t="n">
+        <v>352.7722222222222</v>
+      </c>
+      <c r="I678" t="n">
+        <v>340.3390476190476</v>
+      </c>
+      <c r="J678" t="n">
+        <v>348.0033333333333</v>
+      </c>
+      <c r="K678" t="n">
+        <v>361.2466666666666</v>
+      </c>
+      <c r="L678" t="n">
+        <v>358.0766666666667</v>
+      </c>
+      <c r="M678" t="n">
+        <v>369.95</v>
+      </c>
+      <c r="N678" t="n">
+        <v>364.5205882352942</v>
+      </c>
+      <c r="O678" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31430,7 +31481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38348,6 +38399,16 @@
       </c>
       <c r="B691" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -39516,7 +39577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O677"/>
+  <dimension ref="A1:O678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84513,6 +84574,83 @@
         </is>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>-37.16929771755381,175.8823663809047</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>-37.169960944192596,175.88270818770403</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>-37.170605876878895,175.8831151097083</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>-37.171130468158594,175.88364555873298</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>-37.17177600833832,175.88319543482393</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>-37.172503285435965,175.8831524164198</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>-37.17322743667074,175.88311098199188</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>-37.173960073603176,175.88316937995378</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>-37.17463591975378,175.88345562175186</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>-37.175322870466026,175.88371860143104</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>-37.17603687034638,175.88379952154614</t>
+        </is>
+      </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>-37.176724451659176,175.8840457759682</t>
+        </is>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
+          <t>-37.17742108799615,175.8842201660961</t>
+        </is>
+      </c>
+      <c r="O678" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -38582,28 +38582,28 @@
         <v>0.095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8516899952941563</v>
+        <v>0.8533612260912109</v>
       </c>
       <c r="J2" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K2" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2413714066387529</v>
+        <v>0.2426814851979042</v>
       </c>
       <c r="M2" t="n">
-        <v>9.365012330185175</v>
+        <v>9.35759465871948</v>
       </c>
       <c r="N2" t="n">
-        <v>129.9352871601103</v>
+        <v>129.7458209626928</v>
       </c>
       <c r="O2" t="n">
-        <v>11.39891605198101</v>
+        <v>11.39060230903936</v>
       </c>
       <c r="P2" t="n">
-        <v>323.682184422203</v>
+        <v>323.6651248849444</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38660,28 +38660,28 @@
         <v>0.096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6169128583301793</v>
+        <v>0.61859544031208</v>
       </c>
       <c r="J3" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K3" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L3" t="n">
-        <v>0.139598936857932</v>
+        <v>0.1406401417575481</v>
       </c>
       <c r="M3" t="n">
-        <v>9.36108918880052</v>
+        <v>9.353615128781872</v>
       </c>
       <c r="N3" t="n">
-        <v>132.9000164041402</v>
+        <v>132.7041767455393</v>
       </c>
       <c r="O3" t="n">
-        <v>11.52822694104085</v>
+        <v>11.51972989030295</v>
       </c>
       <c r="P3" t="n">
-        <v>330.675178029968</v>
+        <v>330.6578564008536</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38738,28 +38738,28 @@
         <v>0.0946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4034796996452056</v>
+        <v>0.4044590751610374</v>
       </c>
       <c r="J4" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K4" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06717327017382602</v>
+        <v>0.06769082673947868</v>
       </c>
       <c r="M4" t="n">
-        <v>9.044031029778683</v>
+        <v>9.032719649894194</v>
       </c>
       <c r="N4" t="n">
-        <v>128.5656538856444</v>
+        <v>128.3457568737941</v>
       </c>
       <c r="O4" t="n">
-        <v>11.33867954770944</v>
+        <v>11.32897863330115</v>
       </c>
       <c r="P4" t="n">
-        <v>334.4258504266133</v>
+        <v>334.4157509757287</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38816,28 +38816,28 @@
         <v>0.0203</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.687612847558144</v>
+        <v>-1.676189868616216</v>
       </c>
       <c r="J5" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08882274896891906</v>
+        <v>0.08797268989746321</v>
       </c>
       <c r="M5" t="n">
-        <v>26.64454657273872</v>
+        <v>26.63316900764774</v>
       </c>
       <c r="N5" t="n">
-        <v>1598.792867381536</v>
+        <v>1596.789920362018</v>
       </c>
       <c r="O5" t="n">
-        <v>39.98490799516158</v>
+        <v>39.95985385811638</v>
       </c>
       <c r="P5" t="n">
-        <v>376.5970816425904</v>
+        <v>376.4737132917697</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38894,28 +38894,28 @@
         <v>0.0825</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5361669452592469</v>
+        <v>0.5328249360799249</v>
       </c>
       <c r="J6" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K6" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1230990343377443</v>
+        <v>0.1219512272649501</v>
       </c>
       <c r="M6" t="n">
-        <v>8.57033367184469</v>
+        <v>8.573525051523609</v>
       </c>
       <c r="N6" t="n">
-        <v>116.2565111350754</v>
+        <v>116.2318433964649</v>
       </c>
       <c r="O6" t="n">
-        <v>10.78223126885504</v>
+        <v>10.78108730121711</v>
       </c>
       <c r="P6" t="n">
-        <v>344.5651243112064</v>
+        <v>344.5997027108781</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38972,28 +38972,28 @@
         <v>0.1301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5873245411598421</v>
+        <v>0.5870278544275263</v>
       </c>
       <c r="J7" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K7" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1583695716466744</v>
+        <v>0.1586830526988221</v>
       </c>
       <c r="M7" t="n">
-        <v>7.846176074945543</v>
+        <v>7.833593999637433</v>
       </c>
       <c r="N7" t="n">
-        <v>103.1831342694886</v>
+        <v>103.0000169816145</v>
       </c>
       <c r="O7" t="n">
-        <v>10.15790993607881</v>
+        <v>10.14889240171629</v>
       </c>
       <c r="P7" t="n">
-        <v>337.2902249631707</v>
+        <v>337.2933186756541</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39050,28 +39050,28 @@
         <v>0.1091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8061170006159581</v>
+        <v>0.803093292071363</v>
       </c>
       <c r="J8" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K8" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1743096848113178</v>
+        <v>0.1735832405237241</v>
       </c>
       <c r="M8" t="n">
-        <v>10.52477306154639</v>
+        <v>10.52203214821421</v>
       </c>
       <c r="N8" t="n">
-        <v>174.4917615123511</v>
+        <v>174.3398650457085</v>
       </c>
       <c r="O8" t="n">
-        <v>13.209532978586</v>
+        <v>13.20378222501827</v>
       </c>
       <c r="P8" t="n">
-        <v>341.0613374072696</v>
+        <v>341.0926244534217</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39128,28 +39128,28 @@
         <v>0.1322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5922002415152136</v>
+        <v>0.5870647143494996</v>
       </c>
       <c r="J9" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K9" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09336985041576373</v>
+        <v>0.09201916062085336</v>
       </c>
       <c r="M9" t="n">
-        <v>11.13164919514674</v>
+        <v>11.14551881801383</v>
       </c>
       <c r="N9" t="n">
-        <v>192.3525217659469</v>
+        <v>192.4210545966262</v>
       </c>
       <c r="O9" t="n">
-        <v>13.86912116054752</v>
+        <v>13.87159163890814</v>
       </c>
       <c r="P9" t="n">
-        <v>340.0255662850515</v>
+        <v>340.0786209125357</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39206,28 +39206,28 @@
         <v>0.0707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.548797274049014</v>
+        <v>0.5473769631872935</v>
       </c>
       <c r="J10" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K10" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0918641097415045</v>
+        <v>0.09170159959523261</v>
       </c>
       <c r="M10" t="n">
-        <v>10.52564584125455</v>
+        <v>10.51462914115213</v>
       </c>
       <c r="N10" t="n">
-        <v>171.6399402912901</v>
+        <v>171.3606193368553</v>
       </c>
       <c r="O10" t="n">
-        <v>13.10114270937044</v>
+        <v>13.09047819359</v>
       </c>
       <c r="P10" t="n">
-        <v>337.946545802661</v>
+        <v>337.9610982265241</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39284,28 +39284,28 @@
         <v>0.0881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4964520009300142</v>
+        <v>0.4976754252345021</v>
       </c>
       <c r="J11" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K11" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L11" t="n">
-        <v>0.143365612384177</v>
+        <v>0.1443589288766784</v>
       </c>
       <c r="M11" t="n">
-        <v>7.21131247228274</v>
+        <v>7.204573760956221</v>
       </c>
       <c r="N11" t="n">
-        <v>84.02374676985575</v>
+        <v>83.89553260021184</v>
       </c>
       <c r="O11" t="n">
-        <v>9.166446790870264</v>
+        <v>9.159450452959055</v>
       </c>
       <c r="P11" t="n">
-        <v>344.5381977359007</v>
+        <v>344.5255736970185</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39362,28 +39362,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7108453931202349</v>
+        <v>0.7080664842936722</v>
       </c>
       <c r="J12" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K12" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1357474249007815</v>
+        <v>0.1351606403012849</v>
       </c>
       <c r="M12" t="n">
-        <v>10.64295415999121</v>
+        <v>10.6405348444205</v>
       </c>
       <c r="N12" t="n">
-        <v>185.3400775542179</v>
+        <v>185.1236520428735</v>
       </c>
       <c r="O12" t="n">
-        <v>13.61396626829294</v>
+        <v>13.60601528894016</v>
       </c>
       <c r="P12" t="n">
-        <v>347.7504800647994</v>
+        <v>347.7789148341224</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39440,28 +39440,28 @@
         <v>0.1137</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4854605369582898</v>
+        <v>0.4853776171988459</v>
       </c>
       <c r="J13" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K13" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09809077766701124</v>
+        <v>0.09837524231984085</v>
       </c>
       <c r="M13" t="n">
-        <v>8.307857934902476</v>
+        <v>8.292635823066089</v>
       </c>
       <c r="N13" t="n">
-        <v>125.2675191474636</v>
+        <v>125.0308303766538</v>
       </c>
       <c r="O13" t="n">
-        <v>11.19229731321785</v>
+        <v>11.18171857885244</v>
       </c>
       <c r="P13" t="n">
-        <v>357.4755551831001</v>
+        <v>357.4764029509823</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39518,28 +39518,28 @@
         <v>0.0968</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3993294567075421</v>
+        <v>0.3988175033881494</v>
       </c>
       <c r="J14" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K14" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05538174829040987</v>
+        <v>0.05543080493814545</v>
       </c>
       <c r="M14" t="n">
-        <v>9.853665668974413</v>
+        <v>9.83864692059311</v>
       </c>
       <c r="N14" t="n">
-        <v>155.820412367613</v>
+        <v>155.5366422091419</v>
       </c>
       <c r="O14" t="n">
-        <v>12.48280466752617</v>
+        <v>12.47143304553017</v>
       </c>
       <c r="P14" t="n">
-        <v>355.5796684605735</v>
+        <v>355.5849195442987</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0194/nzd0194.xlsx
+++ b/data/nzd0194/nzd0194.xlsx
@@ -38573,13 +38573,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.064</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.095</v>
+        <v>0.1562</v>
       </c>
       <c r="I2" t="n">
         <v>0.8533734022807056</v>
@@ -38651,13 +38651,13 @@
         <v>0.08353372567006823</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0669</v>
+        <v>0.0848</v>
       </c>
       <c r="H3" t="n">
-        <v>0.096</v>
+        <v>0.1231</v>
       </c>
       <c r="I3" t="n">
         <v>0.6186250670642126</v>
@@ -38729,13 +38729,13 @@
         <v>0.1674345626729483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0709</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0946</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>0.4044507418087734</v>
@@ -38807,13 +38807,13 @@
         <v>0.2454197894970164</v>
       </c>
       <c r="F5" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0127</v>
+        <v>0.0188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0203</v>
+        <v>0.0251</v>
       </c>
       <c r="I5" t="n">
         <v>-1.676195580735702</v>
@@ -38885,13 +38885,13 @@
         <v>0.3293470844592278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0646</v>
+        <v>0.0822</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0825</v>
+        <v>0.1043</v>
       </c>
       <c r="I6" t="n">
         <v>0.5328374555827791</v>
@@ -38966,10 +38966,10 @@
         <v>0.105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0917</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1301</v>
+        <v>0.1181</v>
       </c>
       <c r="I7" t="n">
         <v>0.5870089718404287</v>
@@ -39041,13 +39041,13 @@
         <v>0.4968642044895432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0746</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1091</v>
+        <v>0.1841</v>
       </c>
       <c r="I8" t="n">
         <v>0.803105610582546</v>
@@ -39119,13 +39119,13 @@
         <v>0.5805840546575953</v>
       </c>
       <c r="F9" t="n">
-        <v>0.105</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1322</v>
+        <v>0.1185</v>
       </c>
       <c r="I9" t="n">
         <v>0.5870423265918219</v>
@@ -39197,13 +39197,13 @@
         <v>0.6644806010688543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0491</v>
+        <v>0.0689</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0707</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>0.547371904332757</v>
@@ -39275,13 +39275,13 @@
         <v>0.7484078960321764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.065</v>
+        <v>0.1051</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0881</v>
+        <v>0.1506</v>
       </c>
       <c r="I11" t="n">
         <v>0.497676649885639</v>
@@ -39353,13 +39353,13 @@
         <v>0.8323351909954985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.066</v>
+        <v>0.0774</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.1174</v>
       </c>
       <c r="I12" t="n">
         <v>0.7080672266629402</v>
@@ -39431,13 +39431,13 @@
         <v>0.9162624859588204</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0897</v>
+        <v>0.1046</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1137</v>
+        <v>0.1369</v>
       </c>
       <c r="I13" t="n">
         <v>0.4853776171988459</v>
@@ -39509,13 +39509,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0789</v>
+        <v>0.0921</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0968</v>
+        <v>0.1413</v>
       </c>
       <c r="I14" t="n">
         <v>0.3988520257310431</v>
